--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_7_35.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_7_35.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1885666.083215016</v>
+        <v>1967869.909692144</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>13236035.67526076</v>
+        <v>11843801.51954496</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1763776.908577127</v>
+        <v>612367.9462114753</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6407683.110819399</v>
+        <v>6776569.991432588</v>
       </c>
     </row>
     <row r="11">
@@ -659,13 +661,13 @@
         <v>15.64988064861473</v>
       </c>
       <c r="C2" t="n">
-        <v>422.6317226868329</v>
+        <v>22.63172268683286</v>
       </c>
       <c r="D2" t="n">
-        <v>19.05969460684969</v>
+        <v>257.9489039890595</v>
       </c>
       <c r="E2" t="n">
-        <v>365.3326246353248</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F2" t="n">
         <v>420.8729399924937</v>
@@ -674,7 +676,7 @@
         <v>400.2956717864458</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I2" t="n">
         <v>34.5479025439635</v>
@@ -707,7 +709,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -814,10 +816,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>29.30302099321599</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D4" t="n">
         <v>161.683605144497</v>
@@ -829,7 +831,7 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H4" t="n">
         <v>142.3583058069271</v>
@@ -865,25 +867,25 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T4" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>160.9190842242723</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>251.4452045674397</v>
+        <v>15.64988064861473</v>
       </c>
       <c r="C5" t="n">
-        <v>422.6317226868329</v>
+        <v>22.63172268683286</v>
       </c>
       <c r="D5" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E5" t="n">
-        <v>21.71717045362101</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F5" t="n">
         <v>20.87293999249374</v>
       </c>
       <c r="G5" t="n">
-        <v>0.2956717864458369</v>
+        <v>336.1847825754779</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I5" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -956,13 +958,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>7.602798843930202</v>
       </c>
       <c r="Y5" t="n">
-        <v>1.283897344658556</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="6">
@@ -1054,22 +1056,22 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>170.2528374898731</v>
+        <v>158.18667023756</v>
       </c>
       <c r="D7" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I7" t="n">
         <v>98.77088257712678</v>
@@ -1099,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>168.4336970060565</v>
@@ -1111,7 +1113,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>167.6640725760738</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W7" t="n">
         <v>272.1038797892121</v>
@@ -1133,25 +1135,25 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C8" t="n">
-        <v>22.63172268683286</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D8" t="n">
-        <v>19.05969460684969</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E8" t="n">
-        <v>421.717170453621</v>
+        <v>71.21229122917212</v>
       </c>
       <c r="F8" t="n">
-        <v>364.4883941741974</v>
+        <v>20.87293999249374</v>
       </c>
       <c r="G8" t="n">
-        <v>400.2956717864458</v>
+        <v>0.2956717864458369</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1196,10 +1198,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>7.602798843930202</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y8" t="n">
-        <v>1.283897344658556</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="9">
@@ -1288,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>170.2528374898731</v>
@@ -1297,19 +1299,19 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>108.1650069626165</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>152.528232756397</v>
       </c>
       <c r="H10" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,28 +1338,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U10" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X10" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="11">
@@ -1370,13 +1372,13 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E11" t="n">
-        <v>394.7262131746253</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F11" t="n">
         <v>420.8729399924937</v>
@@ -1418,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V11" t="n">
         <v>353.914520725013</v>
@@ -1525,25 +1527,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F13" t="n">
-        <v>98.15366458399259</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>89.66828639967859</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1591,10 +1593,10 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X13" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1616,7 +1618,7 @@
         <v>421.717170453621</v>
       </c>
       <c r="F14" t="n">
-        <v>420.8729399924937</v>
+        <v>420.8729399924947</v>
       </c>
       <c r="G14" t="n">
         <v>400.2956717864458</v>
@@ -1625,7 +1627,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,25 +1657,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X14" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y14" t="n">
-        <v>313.4913822436135</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="15">
@@ -1762,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F16" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>89.43062507611654</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,16 +1812,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S16" t="n">
-        <v>96.44420510686383</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T16" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U16" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>278.8943527180514</v>
@@ -1856,13 +1858,13 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G17" t="n">
-        <v>400.2956717864458</v>
+        <v>400.2956717864467</v>
       </c>
       <c r="H17" t="n">
         <v>294.8896947407055</v>
       </c>
       <c r="I17" t="n">
-        <v>34.54790254396345</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -2248,7 +2250,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>98.15366458399269</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2287,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T22" t="n">
         <v>240.905954296359</v>
@@ -2476,7 +2478,7 @@
         <v>188.264309024945</v>
       </c>
       <c r="C25" t="n">
-        <v>98.26334559068066</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2485,7 +2487,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>170.1431564831852</v>
+        <v>98.15366458399268</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2606,7 +2608,7 @@
         <v>103.323621185591</v>
       </c>
       <c r="T26" t="n">
-        <v>218.7163152458144</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U26" t="n">
         <v>255.7713603095518</v>
@@ -2719,19 +2721,19 @@
         <v>161.683605144497</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G28" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,19 +2760,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>117.820469884299</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>278.8943527180514</v>
+        <v>161.6737988100371</v>
       </c>
       <c r="W28" t="n">
         <v>272.1038797892121</v>
@@ -2779,7 +2781,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="29">
@@ -2840,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>103.3236211855919</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T29" t="n">
         <v>218.7163152458132</v>
@@ -2947,25 +2949,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F31" t="n">
-        <v>170.1431564831852</v>
+        <v>156.5164733647681</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2998,7 +3000,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>96.44420510686429</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>240.905954296359</v>
@@ -3193,19 +3195,19 @@
         <v>161.683605144497</v>
       </c>
       <c r="E34" t="n">
-        <v>130.04008984845</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3238,19 +3240,19 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T34" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W34" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>180.0196592840957</v>
       </c>
       <c r="Y34" t="n">
         <v>224.0793406271554</v>
@@ -3421,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F37" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3472,7 +3474,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>96.44420510686429</v>
+        <v>117.2305314060866</v>
       </c>
       <c r="T37" t="n">
         <v>240.905954296359</v>
@@ -3490,7 +3492,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y37" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3518,10 +3520,10 @@
         <v>400.2956717864458</v>
       </c>
       <c r="H38" t="n">
-        <v>294.8896947407055</v>
+        <v>294.8896947407063</v>
       </c>
       <c r="I38" t="n">
-        <v>34.54790254396433</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3664,13 +3666,13 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>51.58543740429418</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>98.15366458399268</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3706,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S40" t="n">
         <v>168.4336970060565</v>
@@ -3737,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>415.6498806486147</v>
+        <v>415.6498806486155</v>
       </c>
       <c r="C41" t="n">
         <v>422.6317226868329</v>
@@ -3788,22 +3790,22 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U41" t="n">
         <v>255.7713603095518</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X41" t="n">
-        <v>29.49102088937054</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y41" t="n">
         <v>401.2838973446586</v>
@@ -3907,7 +3909,7 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>98.15366458399258</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3946,7 +3948,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T43" t="n">
         <v>240.905954296359</v>
@@ -3974,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C44" t="n">
         <v>422.6317226868329</v>
@@ -3983,16 +3985,16 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E44" t="n">
-        <v>421.717170453621</v>
+        <v>421.7171704536211</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>400.295671786447</v>
       </c>
       <c r="H44" t="n">
-        <v>294.8896947407055</v>
+        <v>294.8896947407056</v>
       </c>
       <c r="I44" t="n">
         <v>34.5479025439635</v>
@@ -4031,16 +4033,16 @@
         <v>218.7163152458132</v>
       </c>
       <c r="U44" t="n">
-        <v>255.7713603095518</v>
+        <v>255.7713603095519</v>
       </c>
       <c r="V44" t="n">
-        <v>144.2393418389334</v>
+        <v>353.9145207250131</v>
       </c>
       <c r="W44" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X44" t="n">
-        <v>407.6027988439302</v>
+        <v>407.6027988439303</v>
       </c>
       <c r="Y44" t="n">
         <v>401.2838973446586</v>
@@ -4132,22 +4134,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C46" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E46" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G46" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>142.3583058069271</v>
@@ -4183,7 +4185,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S46" t="n">
-        <v>168.4336970060565</v>
+        <v>89.41990167770008</v>
       </c>
       <c r="T46" t="n">
         <v>240.905954296359</v>
@@ -4192,16 +4194,16 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W46" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y46" t="n">
-        <v>80.86522355397757</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1716.447907866797</v>
+        <v>1910.322343568199</v>
       </c>
       <c r="C2" t="n">
-        <v>1289.547177880097</v>
+        <v>1887.462017621903</v>
       </c>
       <c r="D2" t="n">
-        <v>1270.294961105501</v>
+        <v>1626.907569148105</v>
       </c>
       <c r="E2" t="n">
-        <v>901.2721079385067</v>
+        <v>1200.930629295963</v>
       </c>
       <c r="F2" t="n">
-        <v>476.1479261279069</v>
+        <v>775.8064474853629</v>
       </c>
       <c r="G2" t="n">
-        <v>71.80886371735554</v>
+        <v>371.4673850748115</v>
       </c>
       <c r="H2" t="n">
-        <v>71.80886371735554</v>
+        <v>73.59900654884638</v>
       </c>
       <c r="I2" t="n">
-        <v>36.91199246082674</v>
+        <v>38.70213529231758</v>
       </c>
       <c r="J2" t="n">
-        <v>36.91199246082674</v>
+        <v>38.70213529231758</v>
       </c>
       <c r="K2" t="n">
-        <v>493.6978991635576</v>
+        <v>38.70213529231758</v>
       </c>
       <c r="L2" t="n">
-        <v>950.4838058662885</v>
+        <v>38.70213529231758</v>
       </c>
       <c r="M2" t="n">
-        <v>1407.269712569019</v>
+        <v>403.5871017449333</v>
       </c>
       <c r="N2" t="n">
-        <v>1845.599623041337</v>
+        <v>403.5871017449333</v>
       </c>
       <c r="O2" t="n">
-        <v>1845.599623041337</v>
+        <v>882.5260259873634</v>
       </c>
       <c r="P2" t="n">
-        <v>1845.599623041337</v>
+        <v>1361.464950229793</v>
       </c>
       <c r="Q2" t="n">
-        <v>1845.599623041337</v>
+        <v>1817.550429733976</v>
       </c>
       <c r="R2" t="n">
-        <v>1845.599623041337</v>
+        <v>1935.106764615879</v>
       </c>
       <c r="S2" t="n">
-        <v>1741.232328914477</v>
+        <v>1935.106764615879</v>
       </c>
       <c r="T2" t="n">
-        <v>1741.232328914477</v>
+        <v>1935.106764615879</v>
       </c>
       <c r="U2" t="n">
-        <v>1741.232328914477</v>
+        <v>1935.106764615879</v>
       </c>
       <c r="V2" t="n">
-        <v>1741.232328914477</v>
+        <v>1935.106764615879</v>
       </c>
       <c r="W2" t="n">
-        <v>1741.232328914477</v>
+        <v>1935.106764615879</v>
       </c>
       <c r="X2" t="n">
-        <v>1733.552734122628</v>
+        <v>1927.42716982403</v>
       </c>
       <c r="Y2" t="n">
-        <v>1732.255868117923</v>
+        <v>1926.130303819325</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>604.0354834922822</v>
+        <v>605.8256263237728</v>
       </c>
       <c r="C3" t="n">
-        <v>486.529580009787</v>
+        <v>488.3197228412776</v>
       </c>
       <c r="D3" t="n">
-        <v>382.6896215250719</v>
+        <v>384.4797643565626</v>
       </c>
       <c r="E3" t="n">
-        <v>277.9876877980091</v>
+        <v>279.7778306294998</v>
       </c>
       <c r="F3" t="n">
-        <v>184.3418574809132</v>
+        <v>186.132000312404</v>
       </c>
       <c r="G3" t="n">
-        <v>90.28808569851708</v>
+        <v>92.07822853000799</v>
       </c>
       <c r="H3" t="n">
-        <v>36.9119924608267</v>
+        <v>38.70213529231758</v>
       </c>
       <c r="I3" t="n">
-        <v>36.91199246082674</v>
+        <v>38.70213529231758</v>
       </c>
       <c r="J3" t="n">
-        <v>36.91199246082674</v>
+        <v>310.3996245719086</v>
       </c>
       <c r="K3" t="n">
-        <v>36.91199246082674</v>
+        <v>310.3996245719086</v>
       </c>
       <c r="L3" t="n">
-        <v>36.91199246082674</v>
+        <v>789.3385488143388</v>
       </c>
       <c r="M3" t="n">
-        <v>36.91199246082674</v>
+        <v>1268.277473056769</v>
       </c>
       <c r="N3" t="n">
-        <v>493.6978991635576</v>
+        <v>1268.277473056769</v>
       </c>
       <c r="O3" t="n">
-        <v>932.027809635875</v>
+        <v>1747.216397299199</v>
       </c>
       <c r="P3" t="n">
-        <v>1388.813716338606</v>
+        <v>1765.370455788124</v>
       </c>
       <c r="Q3" t="n">
-        <v>1845.599623041337</v>
+        <v>1765.370455788124</v>
       </c>
       <c r="R3" t="n">
-        <v>1845.599623041337</v>
+        <v>1847.389765872827</v>
       </c>
       <c r="S3" t="n">
-        <v>1764.275375602591</v>
+        <v>1766.065518434082</v>
       </c>
       <c r="T3" t="n">
-        <v>1622.39543990027</v>
+        <v>1624.18558273176</v>
       </c>
       <c r="U3" t="n">
-        <v>1437.627243819906</v>
+        <v>1439.417386651397</v>
       </c>
       <c r="V3" t="n">
-        <v>1232.654104959172</v>
+        <v>1234.444247790663</v>
       </c>
       <c r="W3" t="n">
-        <v>1036.13272779239</v>
+        <v>1037.92287062388</v>
       </c>
       <c r="X3" t="n">
-        <v>872.6553815590526</v>
+        <v>874.4455243905431</v>
       </c>
       <c r="Y3" t="n">
-        <v>732.9624929123449</v>
+        <v>734.7526357438355</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>781.8635821582118</v>
+        <v>1121.883257816554</v>
       </c>
       <c r="C4" t="n">
-        <v>781.8635821582118</v>
+        <v>949.9106946954704</v>
       </c>
       <c r="D4" t="n">
-        <v>618.5468092849825</v>
+        <v>786.5939218222411</v>
       </c>
       <c r="E4" t="n">
-        <v>452.338603437836</v>
+        <v>620.3857159750946</v>
       </c>
       <c r="F4" t="n">
-        <v>280.4768292123964</v>
+        <v>448.5239417496551</v>
       </c>
       <c r="G4" t="n">
-        <v>280.4768292123964</v>
+        <v>282.2669720438872</v>
       </c>
       <c r="H4" t="n">
-        <v>136.6805607205508</v>
+        <v>138.4707035520416</v>
       </c>
       <c r="I4" t="n">
-        <v>36.91199246082674</v>
+        <v>38.70213529231758</v>
       </c>
       <c r="J4" t="n">
-        <v>94.40332068498475</v>
+        <v>96.19346351647559</v>
       </c>
       <c r="K4" t="n">
-        <v>320.9309218908219</v>
+        <v>322.7210647223128</v>
       </c>
       <c r="L4" t="n">
-        <v>675.6202431852428</v>
+        <v>677.4103860167336</v>
       </c>
       <c r="M4" t="n">
-        <v>695.080641322875</v>
+        <v>1068.596180986984</v>
       </c>
       <c r="N4" t="n">
-        <v>1072.572152198911</v>
+        <v>1162.079293773453</v>
       </c>
       <c r="O4" t="n">
-        <v>1428.000280878674</v>
+        <v>1517.507422453216</v>
       </c>
       <c r="P4" t="n">
-        <v>1718.599492800575</v>
+        <v>1808.106634375117</v>
       </c>
       <c r="Q4" t="n">
-        <v>1845.599623041337</v>
+        <v>1935.106764615879</v>
       </c>
       <c r="R4" t="n">
-        <v>1798.56100972851</v>
+        <v>1888.068151303052</v>
       </c>
       <c r="S4" t="n">
-        <v>1798.56100972851</v>
+        <v>1717.933103822187</v>
       </c>
       <c r="T4" t="n">
-        <v>1555.22166195441</v>
+        <v>1474.593756048087</v>
       </c>
       <c r="U4" t="n">
-        <v>1555.22166195441</v>
+        <v>1312.04922652862</v>
       </c>
       <c r="V4" t="n">
-        <v>1555.22166195441</v>
+        <v>1312.04922652862</v>
       </c>
       <c r="W4" t="n">
-        <v>1280.369258126923</v>
+        <v>1312.04922652862</v>
       </c>
       <c r="X4" t="n">
-        <v>1037.805361572728</v>
+        <v>1312.04922652862</v>
       </c>
       <c r="Y4" t="n">
-        <v>811.4625932624704</v>
+        <v>1312.04922652862</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>965.3211864711366</v>
+        <v>1575.160856418925</v>
       </c>
       <c r="C5" t="n">
-        <v>538.4204564844367</v>
+        <v>1552.300530472629</v>
       </c>
       <c r="D5" t="n">
-        <v>115.1278356694369</v>
+        <v>1129.00790965763</v>
       </c>
       <c r="E5" t="n">
-        <v>93.19129985769854</v>
+        <v>703.0309698054872</v>
       </c>
       <c r="F5" t="n">
-        <v>72.10752208750284</v>
+        <v>681.9471920352914</v>
       </c>
       <c r="G5" t="n">
-        <v>71.80886371735554</v>
+        <v>342.3666035752127</v>
       </c>
       <c r="H5" t="n">
-        <v>71.80886371735554</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I5" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J5" t="n">
-        <v>399.5154512777223</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K5" t="n">
-        <v>399.5154512777223</v>
+        <v>407.101683866143</v>
       </c>
       <c r="L5" t="n">
-        <v>814.4714747539724</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="M5" t="n">
-        <v>1271.257381456703</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="N5" t="n">
-        <v>1728.043288159434</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="O5" t="n">
-        <v>1728.043288159434</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="P5" t="n">
-        <v>1728.043288159434</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="Q5" t="n">
-        <v>1728.043288159434</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="R5" t="n">
-        <v>1845.599623041337</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S5" t="n">
-        <v>1845.599623041337</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T5" t="n">
-        <v>1624.67405208597</v>
+        <v>2003.98568150701</v>
       </c>
       <c r="U5" t="n">
-        <v>1624.67405208597</v>
+        <v>2003.98568150701</v>
       </c>
       <c r="V5" t="n">
-        <v>1624.67405208597</v>
+        <v>2003.98568150701</v>
       </c>
       <c r="W5" t="n">
-        <v>1228.282702386317</v>
+        <v>2003.98568150701</v>
       </c>
       <c r="X5" t="n">
-        <v>1220.603107594468</v>
+        <v>1996.306086715161</v>
       </c>
       <c r="Y5" t="n">
-        <v>1219.306241589763</v>
+        <v>1590.968816670051</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>604.0354834922822</v>
+        <v>611.6217160807028</v>
       </c>
       <c r="C6" t="n">
-        <v>486.529580009787</v>
+        <v>494.1158125982075</v>
       </c>
       <c r="D6" t="n">
-        <v>382.6896215250719</v>
+        <v>390.2758541134926</v>
       </c>
       <c r="E6" t="n">
-        <v>277.9876877980091</v>
+        <v>285.5739203864298</v>
       </c>
       <c r="F6" t="n">
-        <v>184.3418574809132</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G6" t="n">
-        <v>90.28808569851708</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H6" t="n">
-        <v>36.9119924608267</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I6" t="n">
-        <v>36.9119924608267</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J6" t="n">
-        <v>308.6094817404178</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="K6" t="n">
-        <v>308.6094817404178</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="L6" t="n">
-        <v>308.6094817404178</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="M6" t="n">
-        <v>308.6094817404178</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="N6" t="n">
-        <v>393.2225928484409</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="O6" t="n">
-        <v>850.0084995511718</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="P6" t="n">
-        <v>1306.794406253903</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="Q6" t="n">
-        <v>1763.580312956634</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="R6" t="n">
-        <v>1845.599623041337</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="S6" t="n">
-        <v>1764.275375602591</v>
+        <v>1771.861608191012</v>
       </c>
       <c r="T6" t="n">
-        <v>1622.39543990027</v>
+        <v>1629.98167248869</v>
       </c>
       <c r="U6" t="n">
-        <v>1437.627243819906</v>
+        <v>1445.213476408327</v>
       </c>
       <c r="V6" t="n">
-        <v>1232.654104959172</v>
+        <v>1240.240337547593</v>
       </c>
       <c r="W6" t="n">
-        <v>1036.13272779239</v>
+        <v>1043.71896038081</v>
       </c>
       <c r="X6" t="n">
-        <v>872.6553815590526</v>
+        <v>880.2416141474731</v>
       </c>
       <c r="Y6" t="n">
-        <v>732.9624929123449</v>
+        <v>740.5487255007655</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>471.969896714864</v>
+        <v>785.9663211234994</v>
       </c>
       <c r="C7" t="n">
-        <v>299.9973335937801</v>
+        <v>626.1818057320246</v>
       </c>
       <c r="D7" t="n">
-        <v>136.6805607205508</v>
+        <v>626.1818057320246</v>
       </c>
       <c r="E7" t="n">
-        <v>136.6805607205508</v>
+        <v>626.1818057320246</v>
       </c>
       <c r="F7" t="n">
-        <v>136.6805607205508</v>
+        <v>454.3200315065851</v>
       </c>
       <c r="G7" t="n">
-        <v>136.6805607205508</v>
+        <v>288.0630618008172</v>
       </c>
       <c r="H7" t="n">
-        <v>136.6805607205508</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="I7" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J7" t="n">
-        <v>94.40332068498475</v>
+        <v>101.9895532734055</v>
       </c>
       <c r="K7" t="n">
-        <v>320.9309218908219</v>
+        <v>328.5171544792427</v>
       </c>
       <c r="L7" t="n">
-        <v>675.6202431852428</v>
+        <v>683.2064757736634</v>
       </c>
       <c r="M7" t="n">
-        <v>1066.806038155494</v>
+        <v>1074.392270743914</v>
       </c>
       <c r="N7" t="n">
-        <v>1363.171364120812</v>
+        <v>1451.88378161995</v>
       </c>
       <c r="O7" t="n">
-        <v>1718.599492800575</v>
+        <v>1807.311910299713</v>
       </c>
       <c r="P7" t="n">
-        <v>1718.599492800575</v>
+        <v>2097.911122221614</v>
       </c>
       <c r="Q7" t="n">
-        <v>1845.599623041337</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="R7" t="n">
-        <v>1798.56100972851</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S7" t="n">
-        <v>1628.425962247645</v>
+        <v>2054.776204981511</v>
       </c>
       <c r="T7" t="n">
-        <v>1385.086614473545</v>
+        <v>1811.43685720741</v>
       </c>
       <c r="U7" t="n">
-        <v>1385.086614473545</v>
+        <v>1811.43685720741</v>
       </c>
       <c r="V7" t="n">
-        <v>1215.728965406804</v>
+        <v>1529.725389815439</v>
       </c>
       <c r="W7" t="n">
-        <v>940.8765615793169</v>
+        <v>1254.872985987952</v>
       </c>
       <c r="X7" t="n">
-        <v>698.312665025122</v>
+        <v>1012.309089433757</v>
       </c>
       <c r="Y7" t="n">
-        <v>471.969896714864</v>
+        <v>785.9663211234994</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1312.407503826393</v>
+        <v>988.0056192934842</v>
       </c>
       <c r="C8" t="n">
-        <v>1289.547177880097</v>
+        <v>561.1048893067843</v>
       </c>
       <c r="D8" t="n">
-        <v>1270.294961105501</v>
+        <v>137.8122684917846</v>
       </c>
       <c r="E8" t="n">
-        <v>844.3180212533588</v>
+        <v>65.88066118959054</v>
       </c>
       <c r="F8" t="n">
-        <v>476.1479261279069</v>
+        <v>44.79688341939484</v>
       </c>
       <c r="G8" t="n">
-        <v>71.80886371735554</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H8" t="n">
-        <v>71.80886371735554</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I8" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J8" t="n">
-        <v>399.5154512777223</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K8" t="n">
-        <v>475.2419029331441</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="L8" t="n">
-        <v>932.027809635875</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="M8" t="n">
-        <v>1388.813716338606</v>
+        <v>1696.494830002562</v>
       </c>
       <c r="N8" t="n">
-        <v>1845.599623041337</v>
+        <v>1696.494830002562</v>
       </c>
       <c r="O8" t="n">
-        <v>1845.599623041337</v>
+        <v>1696.494830002562</v>
       </c>
       <c r="P8" t="n">
-        <v>1845.599623041337</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="Q8" t="n">
-        <v>1845.599623041337</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R8" t="n">
-        <v>1845.599623041337</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S8" t="n">
-        <v>1741.232328914477</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T8" t="n">
-        <v>1741.232328914477</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="U8" t="n">
-        <v>1741.232328914477</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="V8" t="n">
-        <v>1741.232328914477</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="W8" t="n">
-        <v>1741.232328914477</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="X8" t="n">
-        <v>1733.552734122628</v>
+        <v>1813.191253630124</v>
       </c>
       <c r="Y8" t="n">
-        <v>1732.255868117923</v>
+        <v>1407.853983585014</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>604.0354834922822</v>
+        <v>611.6217160807028</v>
       </c>
       <c r="C9" t="n">
-        <v>486.529580009787</v>
+        <v>494.1158125982075</v>
       </c>
       <c r="D9" t="n">
-        <v>382.6896215250719</v>
+        <v>390.2758541134926</v>
       </c>
       <c r="E9" t="n">
-        <v>277.9876877980091</v>
+        <v>285.5739203864298</v>
       </c>
       <c r="F9" t="n">
-        <v>184.3418574809132</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G9" t="n">
-        <v>90.28808569851708</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H9" t="n">
-        <v>36.9119924608267</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I9" t="n">
-        <v>36.9119924608267</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J9" t="n">
-        <v>308.6094817404178</v>
+        <v>316.1957143288386</v>
       </c>
       <c r="K9" t="n">
-        <v>765.3953884431487</v>
+        <v>669.8354755761777</v>
       </c>
       <c r="L9" t="n">
-        <v>765.3953884431487</v>
+        <v>1220.501010560616</v>
       </c>
       <c r="M9" t="n">
-        <v>850.0084995511718</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="N9" t="n">
-        <v>850.0084995511718</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="O9" t="n">
-        <v>1306.794406253903</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="P9" t="n">
-        <v>1763.580312956634</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="Q9" t="n">
-        <v>1763.580312956634</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="R9" t="n">
-        <v>1845.599623041337</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="S9" t="n">
-        <v>1764.275375602591</v>
+        <v>1771.861608191012</v>
       </c>
       <c r="T9" t="n">
-        <v>1622.39543990027</v>
+        <v>1629.98167248869</v>
       </c>
       <c r="U9" t="n">
-        <v>1437.627243819906</v>
+        <v>1445.213476408327</v>
       </c>
       <c r="V9" t="n">
-        <v>1232.654104959172</v>
+        <v>1240.240337547593</v>
       </c>
       <c r="W9" t="n">
-        <v>1036.13272779239</v>
+        <v>1043.71896038081</v>
       </c>
       <c r="X9" t="n">
-        <v>872.6553815590526</v>
+        <v>880.2416141474731</v>
       </c>
       <c r="Y9" t="n">
-        <v>732.9624929123449</v>
+        <v>740.5487255007655</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>633.8001810897176</v>
+        <v>785.9663211234994</v>
       </c>
       <c r="C10" t="n">
-        <v>461.8276179686336</v>
+        <v>613.9937580024153</v>
       </c>
       <c r="D10" t="n">
-        <v>461.8276179686336</v>
+        <v>613.9937580024153</v>
       </c>
       <c r="E10" t="n">
-        <v>352.5700351781119</v>
+        <v>613.9937580024153</v>
       </c>
       <c r="F10" t="n">
-        <v>180.7082609526723</v>
+        <v>442.1319837769757</v>
       </c>
       <c r="G10" t="n">
-        <v>180.7082609526723</v>
+        <v>288.0630618008172</v>
       </c>
       <c r="H10" t="n">
-        <v>36.91199246082674</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="I10" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J10" t="n">
-        <v>94.40332068498475</v>
+        <v>101.9895532734055</v>
       </c>
       <c r="K10" t="n">
-        <v>320.9309218908219</v>
+        <v>328.5171544792427</v>
       </c>
       <c r="L10" t="n">
-        <v>675.6202431852428</v>
+        <v>683.2064757736634</v>
       </c>
       <c r="M10" t="n">
-        <v>1066.806038155494</v>
+        <v>1074.392270743914</v>
       </c>
       <c r="N10" t="n">
-        <v>1199.572282439673</v>
+        <v>1451.88378161995</v>
       </c>
       <c r="O10" t="n">
-        <v>1555.000411119436</v>
+        <v>1807.311910299713</v>
       </c>
       <c r="P10" t="n">
-        <v>1845.599623041337</v>
+        <v>2097.911122221614</v>
       </c>
       <c r="Q10" t="n">
-        <v>1845.599623041337</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="R10" t="n">
-        <v>1798.56100972851</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S10" t="n">
-        <v>1628.425962247645</v>
+        <v>2054.776204981511</v>
       </c>
       <c r="T10" t="n">
-        <v>1628.425962247645</v>
+        <v>1811.43685720741</v>
       </c>
       <c r="U10" t="n">
-        <v>1348.241513747949</v>
+        <v>1811.43685720741</v>
       </c>
       <c r="V10" t="n">
-        <v>1066.530046355978</v>
+        <v>1529.725389815439</v>
       </c>
       <c r="W10" t="n">
-        <v>1066.530046355978</v>
+        <v>1254.872985987952</v>
       </c>
       <c r="X10" t="n">
-        <v>823.9661498017832</v>
+        <v>1012.309089433757</v>
       </c>
       <c r="Y10" t="n">
-        <v>823.9661498017832</v>
+        <v>785.9663211234994</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1633.42609040768</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C11" t="n">
-        <v>1633.42609040768</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D11" t="n">
-        <v>1633.42609040768</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E11" t="n">
-        <v>1234.712743766645</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F11" t="n">
-        <v>809.5885619560448</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G11" t="n">
-        <v>405.2494995454934</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H11" t="n">
-        <v>107.3811210195283</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I11" t="n">
-        <v>72.48424976299953</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J11" t="n">
-        <v>435.087708579895</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K11" t="n">
-        <v>1150.596016555394</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L11" t="n">
-        <v>2047.588607372513</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M11" t="n">
-        <v>2779.067837999164</v>
+        <v>2751.722170419663</v>
       </c>
       <c r="N11" t="n">
-        <v>2779.067837999164</v>
+        <v>3727.973228906364</v>
       </c>
       <c r="O11" t="n">
-        <v>3624.212488149976</v>
+        <v>4573.117879057176</v>
       </c>
       <c r="P11" t="n">
-        <v>3624.212488149976</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="Q11" t="n">
-        <v>3624.212488149976</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="R11" t="n">
-        <v>3624.212488149976</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S11" t="n">
-        <v>3624.212488149976</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T11" t="n">
-        <v>3624.212488149976</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U11" t="n">
-        <v>3624.212488149976</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V11" t="n">
-        <v>3266.723073276225</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W11" t="n">
-        <v>2870.331723576573</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X11" t="n">
-        <v>2458.61172474432</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y11" t="n">
-        <v>2053.27445469921</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>639.6077407944548</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C12" t="n">
-        <v>522.1018373119596</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D12" t="n">
-        <v>418.2618788272446</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E12" t="n">
-        <v>313.5599451001818</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F12" t="n">
-        <v>219.9141147830859</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G12" t="n">
-        <v>125.8603430006899</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H12" t="n">
-        <v>72.48424976299953</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I12" t="n">
-        <v>79.93089272491136</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J12" t="n">
-        <v>351.6283820045024</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K12" t="n">
-        <v>351.6283820045024</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="L12" t="n">
-        <v>351.6283820045024</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="M12" t="n">
-        <v>351.6283820045024</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="N12" t="n">
-        <v>351.6283820045024</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="O12" t="n">
-        <v>1082.954853220308</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="P12" t="n">
-        <v>1799.152570258806</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q12" t="n">
-        <v>1799.152570258806</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R12" t="n">
-        <v>1881.171880343509</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S12" t="n">
-        <v>1799.847632904764</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T12" t="n">
-        <v>1657.967697202442</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U12" t="n">
-        <v>1473.199501122079</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V12" t="n">
-        <v>1268.226362261345</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W12" t="n">
-        <v>1071.704985094562</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X12" t="n">
-        <v>908.2276388612252</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y12" t="n">
-        <v>768.5347502145175</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>343.6019286254902</v>
+        <v>1032.493025844838</v>
       </c>
       <c r="C13" t="n">
-        <v>171.6293655044062</v>
+        <v>860.5204627237538</v>
       </c>
       <c r="D13" t="n">
-        <v>171.6293655044062</v>
+        <v>697.2036898505245</v>
       </c>
       <c r="E13" t="n">
-        <v>171.6293655044062</v>
+        <v>530.995484003378</v>
       </c>
       <c r="F13" t="n">
-        <v>72.48424976299953</v>
+        <v>359.1337097779384</v>
       </c>
       <c r="G13" t="n">
-        <v>72.48424976299953</v>
+        <v>192.8767400721705</v>
       </c>
       <c r="H13" t="n">
-        <v>72.48424976299953</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I13" t="n">
-        <v>72.48424976299953</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J13" t="n">
-        <v>129.9755779871575</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K13" t="n">
-        <v>356.5031791929947</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L13" t="n">
-        <v>711.1925004874155</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M13" t="n">
-        <v>1102.378295457666</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N13" t="n">
-        <v>1479.869806333702</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O13" t="n">
-        <v>1835.297935013465</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P13" t="n">
-        <v>2125.897146935366</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q13" t="n">
-        <v>2252.897277176128</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R13" t="n">
-        <v>2252.897277176128</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S13" t="n">
-        <v>2082.762229695263</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T13" t="n">
-        <v>1839.422881921163</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U13" t="n">
-        <v>1559.238433421467</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V13" t="n">
-        <v>1277.526966029496</v>
+        <v>1307.345429672325</v>
       </c>
       <c r="W13" t="n">
-        <v>1002.674562202009</v>
+        <v>1032.493025844838</v>
       </c>
       <c r="X13" t="n">
-        <v>760.1106656478138</v>
+        <v>1032.493025844838</v>
       </c>
       <c r="Y13" t="n">
-        <v>533.7678973375558</v>
+        <v>1032.493025844838</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2475.986163163958</v>
+        <v>2540.701498063317</v>
       </c>
       <c r="C14" t="n">
-        <v>2049.085433177258</v>
+        <v>2113.800768076617</v>
       </c>
       <c r="D14" t="n">
-        <v>1625.792812362258</v>
+        <v>1690.508147261617</v>
       </c>
       <c r="E14" t="n">
-        <v>1199.815872510116</v>
+        <v>1264.531207409475</v>
       </c>
       <c r="F14" t="n">
-        <v>774.6916906995161</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G14" t="n">
-        <v>370.3526282889647</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H14" t="n">
-        <v>72.48424976299953</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I14" t="n">
-        <v>72.48424976299953</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J14" t="n">
-        <v>217.7264077231201</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K14" t="n">
-        <v>933.2347156986192</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L14" t="n">
-        <v>1830.227306515738</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M14" t="n">
-        <v>2727.219897332857</v>
+        <v>2751.722170419663</v>
       </c>
       <c r="N14" t="n">
-        <v>3624.212488149976</v>
+        <v>3727.973228906364</v>
       </c>
       <c r="O14" t="n">
-        <v>3624.212488149976</v>
+        <v>4573.117879057176</v>
       </c>
       <c r="P14" t="n">
-        <v>3624.212488149976</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q14" t="n">
-        <v>3624.212488149976</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R14" t="n">
-        <v>3624.212488149976</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S14" t="n">
-        <v>3624.212488149976</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T14" t="n">
-        <v>3624.212488149976</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U14" t="n">
-        <v>3624.212488149976</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V14" t="n">
-        <v>3624.212488149976</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W14" t="n">
-        <v>3624.212488149976</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X14" t="n">
-        <v>3212.492489317724</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y14" t="n">
-        <v>2895.834527455488</v>
+        <v>2960.549862354847</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>639.6077407944548</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C15" t="n">
-        <v>522.1018373119596</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D15" t="n">
-        <v>418.2618788272446</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E15" t="n">
-        <v>313.5599451001818</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F15" t="n">
-        <v>219.9141147830859</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G15" t="n">
-        <v>125.8603430006899</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H15" t="n">
-        <v>72.48424976299953</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I15" t="n">
-        <v>72.48424976299953</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J15" t="n">
-        <v>72.48424976299953</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K15" t="n">
-        <v>662.9691763313391</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="L15" t="n">
-        <v>662.9691763313391</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="M15" t="n">
-        <v>902.1599794416871</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="N15" t="n">
-        <v>1799.152570258806</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="O15" t="n">
-        <v>1799.152570258806</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="P15" t="n">
-        <v>1799.152570258806</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q15" t="n">
-        <v>1799.152570258806</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R15" t="n">
-        <v>1881.171880343509</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S15" t="n">
-        <v>1799.847632904764</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T15" t="n">
-        <v>1657.967697202442</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U15" t="n">
-        <v>1473.199501122079</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V15" t="n">
-        <v>1268.226362261345</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W15" t="n">
-        <v>1071.704985094562</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X15" t="n">
-        <v>908.2276388612252</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y15" t="n">
-        <v>768.5347502145175</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>416.3185871095231</v>
+        <v>796.7321961672566</v>
       </c>
       <c r="C16" t="n">
-        <v>244.3460239884391</v>
+        <v>796.7321961672566</v>
       </c>
       <c r="D16" t="n">
-        <v>244.3460239884391</v>
+        <v>796.7321961672566</v>
       </c>
       <c r="E16" t="n">
-        <v>244.3460239884391</v>
+        <v>630.5239903201101</v>
       </c>
       <c r="F16" t="n">
-        <v>72.48424976299953</v>
+        <v>458.6622160946705</v>
       </c>
       <c r="G16" t="n">
-        <v>72.48424976299953</v>
+        <v>292.4052463889026</v>
       </c>
       <c r="H16" t="n">
-        <v>72.48424976299953</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I16" t="n">
-        <v>72.48424976299953</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J16" t="n">
-        <v>129.9755779871575</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K16" t="n">
-        <v>356.5031791929947</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L16" t="n">
-        <v>711.1925004874155</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M16" t="n">
-        <v>1102.378295457666</v>
+        <v>1132.196759100498</v>
       </c>
       <c r="N16" t="n">
-        <v>1479.869806333702</v>
+        <v>1509.688269976534</v>
       </c>
       <c r="O16" t="n">
-        <v>1835.297935013465</v>
+        <v>1865.116398656297</v>
       </c>
       <c r="P16" t="n">
-        <v>2125.897146935366</v>
+        <v>2155.715610578198</v>
       </c>
       <c r="Q16" t="n">
-        <v>2252.897277176128</v>
+        <v>2282.71574081896</v>
       </c>
       <c r="R16" t="n">
-        <v>2252.897277176128</v>
+        <v>2235.677127506133</v>
       </c>
       <c r="S16" t="n">
-        <v>2155.478888179296</v>
+        <v>2065.542080025268</v>
       </c>
       <c r="T16" t="n">
-        <v>1912.139540405195</v>
+        <v>1822.202732251168</v>
       </c>
       <c r="U16" t="n">
-        <v>1631.9550919055</v>
+        <v>1822.202732251168</v>
       </c>
       <c r="V16" t="n">
-        <v>1350.243624513529</v>
+        <v>1540.491264859196</v>
       </c>
       <c r="W16" t="n">
-        <v>1075.391220686042</v>
+        <v>1265.638861031709</v>
       </c>
       <c r="X16" t="n">
-        <v>832.8273241318467</v>
+        <v>1023.074964477515</v>
       </c>
       <c r="Y16" t="n">
-        <v>606.4845558215887</v>
+        <v>796.7321961672566</v>
       </c>
     </row>
     <row r="17">
@@ -5489,22 +5491,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063317</v>
       </c>
       <c r="C17" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076617</v>
       </c>
       <c r="D17" t="n">
-        <v>1690.508147261616</v>
+        <v>1690.508147261617</v>
       </c>
       <c r="E17" t="n">
-        <v>1264.531207409474</v>
+        <v>1264.531207409475</v>
       </c>
       <c r="F17" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988747</v>
       </c>
       <c r="G17" t="n">
-        <v>435.0679631883224</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H17" t="n">
         <v>137.1995846623573</v>
@@ -5513,52 +5515,52 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J17" t="n">
-        <v>464.906172222724</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K17" t="n">
         <v>1180.414480198223</v>
       </c>
       <c r="L17" t="n">
-        <v>1581.174581076927</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M17" t="n">
-        <v>2585.460682495986</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N17" t="n">
-        <v>3561.711740982686</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O17" t="n">
-        <v>4406.856391133499</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="P17" t="n">
-        <v>5115.135670291426</v>
+        <v>4659.050190787244</v>
       </c>
       <c r="Q17" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R17" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S17" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T17" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U17" t="n">
         <v>4531.487895805612</v>
       </c>
       <c r="V17" t="n">
-        <v>4173.998480931861</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W17" t="n">
-        <v>3777.607131232208</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X17" t="n">
         <v>3365.887132399956</v>
       </c>
       <c r="Y17" t="n">
-        <v>2960.549862354846</v>
+        <v>2960.549862354847</v>
       </c>
     </row>
     <row r="18">
@@ -5592,28 +5594,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J18" t="n">
-        <v>374.0002026854196</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K18" t="n">
-        <v>648.6278400003578</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="L18" t="n">
-        <v>648.6278400003578</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="M18" t="n">
-        <v>648.6278400003578</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="N18" t="n">
-        <v>648.6278400003578</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="O18" t="n">
-        <v>648.6278400003578</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="P18" t="n">
-        <v>1364.825557038856</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q18" t="n">
-        <v>1828.971033901635</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R18" t="n">
         <v>1910.990343986338</v>
@@ -5671,10 +5673,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J19" t="n">
-        <v>159.7940416299865</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K19" t="n">
-        <v>386.3216428358237</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L19" t="n">
         <v>741.0109641302445</v>
@@ -5726,25 +5728,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C20" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D20" t="n">
-        <v>1690.508147261617</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E20" t="n">
         <v>1264.531207409474</v>
       </c>
       <c r="F20" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G20" t="n">
-        <v>435.0679631883224</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H20" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I20" t="n">
         <v>102.3027134058285</v>
@@ -5753,34 +5755,34 @@
         <v>102.3027134058285</v>
       </c>
       <c r="K20" t="n">
-        <v>102.3027134058285</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L20" t="n">
-        <v>1007.532766690842</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M20" t="n">
-        <v>2011.8188681099</v>
+        <v>2011.818868109901</v>
       </c>
       <c r="N20" t="n">
-        <v>2988.069926596601</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O20" t="n">
-        <v>3833.214576747413</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P20" t="n">
-        <v>4541.493855905341</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q20" t="n">
-        <v>4997.579335409524</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R20" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S20" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T20" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U20" t="n">
         <v>4531.487895805612</v>
@@ -5792,7 +5794,7 @@
         <v>3777.607131232208</v>
       </c>
       <c r="X20" t="n">
-        <v>3365.887132399956</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y20" t="n">
         <v>2960.549862354846</v>
@@ -5829,19 +5831,19 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J21" t="n">
-        <v>374.0002026854196</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K21" t="n">
-        <v>374.0002026854196</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="L21" t="n">
-        <v>374.0002026854196</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="M21" t="n">
-        <v>374.0002026854196</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="N21" t="n">
-        <v>1446.844867123559</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="O21" t="n">
         <v>1446.844867123559</v>
@@ -5884,16 +5886,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>373.4203922683193</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C22" t="n">
-        <v>201.4478291472353</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D22" t="n">
-        <v>201.4478291472353</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E22" t="n">
-        <v>201.4478291472353</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F22" t="n">
         <v>102.3027134058285</v>
@@ -5908,10 +5910,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J22" t="n">
-        <v>159.7940416299865</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K22" t="n">
-        <v>386.3216428358237</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L22" t="n">
         <v>741.0109641302445</v>
@@ -5935,25 +5937,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S22" t="n">
-        <v>2112.580693338092</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T22" t="n">
-        <v>1869.241345563992</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U22" t="n">
-        <v>1589.056897064296</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V22" t="n">
-        <v>1307.345429672325</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W22" t="n">
-        <v>1032.493025844838</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X22" t="n">
-        <v>789.9291292906429</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y22" t="n">
-        <v>563.5863609803849</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="23">
@@ -5987,28 +5989,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J23" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K23" t="n">
-        <v>651.5495334576516</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L23" t="n">
-        <v>1581.174581076928</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M23" t="n">
-        <v>2585.460682495986</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N23" t="n">
-        <v>3561.711740982687</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O23" t="n">
-        <v>4406.8563911335</v>
+        <v>4935.721337874071</v>
       </c>
       <c r="P23" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="Q23" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R23" t="n">
         <v>5115.135670291427</v>
@@ -6078,7 +6080,7 @@
         <v>1158.289251381874</v>
       </c>
       <c r="N24" t="n">
-        <v>1910.990343986338</v>
+        <v>1158.289251381874</v>
       </c>
       <c r="O24" t="n">
         <v>1910.990343986338</v>
@@ -6124,13 +6126,13 @@
         <v>373.4203922683193</v>
       </c>
       <c r="C25" t="n">
-        <v>274.1644876312681</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="D25" t="n">
-        <v>274.1644876312681</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="E25" t="n">
-        <v>274.1644876312681</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="F25" t="n">
         <v>102.3027134058285</v>
@@ -6200,10 +6202,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C26" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D26" t="n">
         <v>1690.508147261616</v>
@@ -6212,40 +6214,40 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F26" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G26" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H26" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I26" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J26" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K26" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L26" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M26" t="n">
-        <v>2751.722170419663</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N26" t="n">
-        <v>3727.973228906364</v>
+        <v>3086.290586304201</v>
       </c>
       <c r="O26" t="n">
-        <v>4573.117879057176</v>
+        <v>3931.435236455013</v>
       </c>
       <c r="P26" t="n">
-        <v>5115.135670291427</v>
+        <v>4639.71451561294</v>
       </c>
       <c r="Q26" t="n">
-        <v>5115.135670291427</v>
+        <v>5095.799995117123</v>
       </c>
       <c r="R26" t="n">
         <v>5115.135670291427</v>
@@ -6254,7 +6256,7 @@
         <v>5010.768376164568</v>
       </c>
       <c r="T26" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U26" t="n">
         <v>4531.487895805612</v>
@@ -6309,19 +6311,19 @@
         <v>102.3027134058285</v>
       </c>
       <c r="L27" t="n">
-        <v>939.1015214887346</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M27" t="n">
-        <v>939.1015214887346</v>
+        <v>1021.509065974867</v>
       </c>
       <c r="N27" t="n">
-        <v>939.1015214887346</v>
+        <v>1021.509065974867</v>
       </c>
       <c r="O27" t="n">
-        <v>1828.582799500206</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P27" t="n">
-        <v>1828.582799500206</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q27" t="n">
         <v>1910.990343986338</v>
@@ -6358,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>603.8490191059097</v>
+        <v>1185.483835930065</v>
       </c>
       <c r="C28" t="n">
-        <v>431.8764559848257</v>
+        <v>1013.511272808982</v>
       </c>
       <c r="D28" t="n">
-        <v>268.5596831115964</v>
+        <v>850.1944999357522</v>
       </c>
       <c r="E28" t="n">
-        <v>268.5596831115964</v>
+        <v>683.9862940886057</v>
       </c>
       <c r="F28" t="n">
-        <v>268.5596831115964</v>
+        <v>512.1245198631661</v>
       </c>
       <c r="G28" t="n">
-        <v>102.3027134058285</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H28" t="n">
-        <v>102.3027134058285</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I28" t="n">
         <v>102.3027134058285</v>
@@ -6406,28 +6408,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R28" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S28" t="n">
-        <v>2116.666551865424</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="T28" t="n">
-        <v>1873.327204091324</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="U28" t="n">
-        <v>1593.142755591628</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="V28" t="n">
-        <v>1311.431288199657</v>
+        <v>2119.408873334071</v>
       </c>
       <c r="W28" t="n">
-        <v>1036.57888437217</v>
+        <v>1844.556469506584</v>
       </c>
       <c r="X28" t="n">
-        <v>794.0149878179755</v>
+        <v>1601.992572952389</v>
       </c>
       <c r="Y28" t="n">
-        <v>794.0149878179755</v>
+        <v>1375.649804642131</v>
       </c>
     </row>
     <row r="29">
@@ -6437,10 +6439,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C29" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D29" t="n">
         <v>1690.508147261616</v>
@@ -6449,13 +6451,13 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F29" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G29" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H29" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I29" t="n">
         <v>102.3027134058285</v>
@@ -6488,10 +6490,10 @@
         <v>5115.135670291427</v>
       </c>
       <c r="S29" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T29" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U29" t="n">
         <v>4531.487895805612</v>
@@ -6540,13 +6542,13 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J30" t="n">
-        <v>374.0002026854196</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K30" t="n">
-        <v>374.0002026854196</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L30" t="n">
-        <v>374.0002026854196</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M30" t="n">
         <v>821.6753975134684</v>
@@ -6595,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>446.1370507523521</v>
+        <v>733.72140846125</v>
       </c>
       <c r="C31" t="n">
-        <v>274.1644876312681</v>
+        <v>733.72140846125</v>
       </c>
       <c r="D31" t="n">
-        <v>274.1644876312681</v>
+        <v>570.4046355880207</v>
       </c>
       <c r="E31" t="n">
-        <v>274.1644876312681</v>
+        <v>404.1964297408742</v>
       </c>
       <c r="F31" t="n">
-        <v>102.3027134058285</v>
+        <v>246.0989818976742</v>
       </c>
       <c r="G31" t="n">
-        <v>102.3027134058285</v>
+        <v>246.0989818976742</v>
       </c>
       <c r="H31" t="n">
         <v>102.3027134058285</v>
@@ -6646,25 +6648,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S31" t="n">
-        <v>2185.297351822124</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="T31" t="n">
-        <v>1941.958004048024</v>
+        <v>2039.376393044857</v>
       </c>
       <c r="U31" t="n">
-        <v>1661.773555548329</v>
+        <v>1759.191944545161</v>
       </c>
       <c r="V31" t="n">
-        <v>1380.062088156358</v>
+        <v>1477.48047715319</v>
       </c>
       <c r="W31" t="n">
-        <v>1105.20968432887</v>
+        <v>1202.628073325703</v>
       </c>
       <c r="X31" t="n">
-        <v>862.6457877746757</v>
+        <v>960.064176771508</v>
       </c>
       <c r="Y31" t="n">
-        <v>636.3030194644177</v>
+        <v>733.72140846125</v>
       </c>
     </row>
     <row r="32">
@@ -6701,19 +6703,19 @@
         <v>102.3027134058285</v>
       </c>
       <c r="K32" t="n">
-        <v>651.5495334576516</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L32" t="n">
-        <v>1581.174581076928</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M32" t="n">
-        <v>2585.460682495986</v>
+        <v>2751.722170419663</v>
       </c>
       <c r="N32" t="n">
-        <v>3561.711740982687</v>
+        <v>3727.973228906364</v>
       </c>
       <c r="O32" t="n">
-        <v>4406.8563911335</v>
+        <v>4573.117879057176</v>
       </c>
       <c r="P32" t="n">
         <v>5115.135670291427</v>
@@ -6786,16 +6788,16 @@
         <v>102.3027134058285</v>
       </c>
       <c r="M33" t="n">
-        <v>102.3027134058285</v>
+        <v>1158.289251381874</v>
       </c>
       <c r="N33" t="n">
-        <v>1021.509065974867</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="O33" t="n">
-        <v>1910.990343986338</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="P33" t="n">
-        <v>1910.990343986338</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q33" t="n">
         <v>1910.990343986338</v>
@@ -6832,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>568.9456755096874</v>
+        <v>1185.483835930065</v>
       </c>
       <c r="C34" t="n">
-        <v>396.9731123886033</v>
+        <v>1013.511272808982</v>
       </c>
       <c r="D34" t="n">
-        <v>233.656339515374</v>
+        <v>850.1944999357522</v>
       </c>
       <c r="E34" t="n">
-        <v>102.3027134058285</v>
+        <v>683.9862940886057</v>
       </c>
       <c r="F34" t="n">
-        <v>102.3027134058285</v>
+        <v>512.1245198631661</v>
       </c>
       <c r="G34" t="n">
-        <v>102.3027134058285</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H34" t="n">
-        <v>102.3027134058285</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I34" t="n">
         <v>102.3027134058285</v>
@@ -6886,22 +6888,22 @@
         <v>2065.542080025265</v>
       </c>
       <c r="T34" t="n">
-        <v>1822.202732251165</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="U34" t="n">
-        <v>1542.018283751469</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="V34" t="n">
-        <v>1260.306816359498</v>
+        <v>1783.830612633294</v>
       </c>
       <c r="W34" t="n">
-        <v>985.454412532011</v>
+        <v>1783.830612633294</v>
       </c>
       <c r="X34" t="n">
-        <v>985.454412532011</v>
+        <v>1601.992572952389</v>
       </c>
       <c r="Y34" t="n">
-        <v>759.1116442217531</v>
+        <v>1375.649804642131</v>
       </c>
     </row>
     <row r="35">
@@ -6929,7 +6931,7 @@
         <v>435.0679631883222</v>
       </c>
       <c r="H35" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I35" t="n">
         <v>102.3027134058285</v>
@@ -6941,19 +6943,19 @@
         <v>1180.414480198223</v>
       </c>
       <c r="L35" t="n">
-        <v>1833.368380730673</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M35" t="n">
-        <v>2837.654482149731</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N35" t="n">
-        <v>3813.905540636432</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O35" t="n">
-        <v>4659.050190787244</v>
+        <v>4935.721337874071</v>
       </c>
       <c r="P35" t="n">
-        <v>4659.050190787244</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q35" t="n">
         <v>5115.135670291427</v>
@@ -7011,31 +7013,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I36" t="n">
-        <v>109.7493563677404</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J36" t="n">
-        <v>381.4468456473314</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="K36" t="n">
-        <v>381.4468456473314</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="L36" t="n">
-        <v>381.4468456473314</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="M36" t="n">
-        <v>1437.433383623377</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="N36" t="n">
-        <v>1437.433383623377</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="O36" t="n">
-        <v>1437.433383623377</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="P36" t="n">
-        <v>1446.844867123559</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q36" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R36" t="n">
         <v>1910.990343986338</v>
@@ -7069,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>446.1370507523521</v>
+        <v>841.6494985835419</v>
       </c>
       <c r="C37" t="n">
-        <v>274.1644876312681</v>
+        <v>841.6494985835419</v>
       </c>
       <c r="D37" t="n">
-        <v>274.1644876312681</v>
+        <v>678.3327257103126</v>
       </c>
       <c r="E37" t="n">
-        <v>274.1644876312681</v>
+        <v>512.1245198631661</v>
       </c>
       <c r="F37" t="n">
-        <v>102.3027134058285</v>
+        <v>512.1245198631661</v>
       </c>
       <c r="G37" t="n">
-        <v>102.3027134058285</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H37" t="n">
-        <v>102.3027134058285</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I37" t="n">
         <v>102.3027134058285</v>
@@ -7120,25 +7122,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S37" t="n">
-        <v>2185.297351822124</v>
+        <v>2164.301062630991</v>
       </c>
       <c r="T37" t="n">
-        <v>1941.958004048024</v>
+        <v>1920.961714856891</v>
       </c>
       <c r="U37" t="n">
-        <v>1661.773555548329</v>
+        <v>1640.777266357195</v>
       </c>
       <c r="V37" t="n">
-        <v>1380.062088156358</v>
+        <v>1359.065798965224</v>
       </c>
       <c r="W37" t="n">
-        <v>1105.20968432887</v>
+        <v>1084.213395137737</v>
       </c>
       <c r="X37" t="n">
-        <v>862.6457877746757</v>
+        <v>841.6494985835419</v>
       </c>
       <c r="Y37" t="n">
-        <v>636.3030194644177</v>
+        <v>841.6494985835419</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2540.701498063317</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C38" t="n">
-        <v>2113.800768076617</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D38" t="n">
-        <v>1690.508147261617</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E38" t="n">
-        <v>1264.531207409475</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F38" t="n">
-        <v>839.4070255988747</v>
+        <v>839.4070255988739</v>
       </c>
       <c r="G38" t="n">
-        <v>435.0679631883233</v>
+        <v>435.0679631883226</v>
       </c>
       <c r="H38" t="n">
-        <v>137.1995846623582</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I38" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J38" t="n">
-        <v>464.9061722227241</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K38" t="n">
-        <v>464.9061722227241</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L38" t="n">
-        <v>1394.531219842001</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M38" t="n">
-        <v>2398.817321261059</v>
+        <v>2751.722170419663</v>
       </c>
       <c r="N38" t="n">
-        <v>3375.06837974776</v>
+        <v>3727.973228906364</v>
       </c>
       <c r="O38" t="n">
-        <v>4220.213029898572</v>
+        <v>4573.117879057176</v>
       </c>
       <c r="P38" t="n">
-        <v>4928.4923090565</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="Q38" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="R38" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S38" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T38" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U38" t="n">
         <v>4531.487895805612</v>
       </c>
       <c r="V38" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W38" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X38" t="n">
         <v>3365.887132399956</v>
       </c>
       <c r="Y38" t="n">
-        <v>2960.549862354847</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="39">
@@ -7257,13 +7259,13 @@
         <v>102.3027134058285</v>
       </c>
       <c r="L39" t="n">
-        <v>821.6753975134684</v>
+        <v>939.1015214887346</v>
       </c>
       <c r="M39" t="n">
-        <v>821.6753975134684</v>
+        <v>1021.509065974867</v>
       </c>
       <c r="N39" t="n">
-        <v>1910.990343986338</v>
+        <v>1021.509065974867</v>
       </c>
       <c r="O39" t="n">
         <v>1910.990343986338</v>
@@ -7306,16 +7308,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>373.4203922683193</v>
+        <v>326.3817789554925</v>
       </c>
       <c r="C40" t="n">
-        <v>201.4478291472353</v>
+        <v>154.4092158344085</v>
       </c>
       <c r="D40" t="n">
-        <v>201.4478291472353</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="E40" t="n">
-        <v>201.4478291472353</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="F40" t="n">
         <v>102.3027134058285</v>
@@ -7330,10 +7332,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J40" t="n">
-        <v>159.7940416299866</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K40" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L40" t="n">
         <v>741.0109641302445</v>
@@ -7354,28 +7356,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R40" t="n">
-        <v>2282.715740818957</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S40" t="n">
-        <v>2112.580693338092</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T40" t="n">
-        <v>1869.241345563992</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U40" t="n">
-        <v>1589.056897064296</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V40" t="n">
-        <v>1307.345429672325</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="W40" t="n">
-        <v>1032.493025844838</v>
+        <v>985.454412532011</v>
       </c>
       <c r="X40" t="n">
-        <v>789.9291292906429</v>
+        <v>742.8905159778161</v>
       </c>
       <c r="Y40" t="n">
-        <v>563.5863609803849</v>
+        <v>516.5477476675582</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2510.883034420487</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C41" t="n">
-        <v>2083.982304433787</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D41" t="n">
-        <v>1660.689683618787</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E41" t="n">
-        <v>1234.712743766645</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F41" t="n">
-        <v>809.5885619560449</v>
+        <v>839.4070255988739</v>
       </c>
       <c r="G41" t="n">
-        <v>405.2494995454935</v>
+        <v>435.0679631883226</v>
       </c>
       <c r="H41" t="n">
-        <v>107.3811210195283</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I41" t="n">
-        <v>72.48424976299954</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J41" t="n">
-        <v>435.087708579895</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K41" t="n">
-        <v>1150.596016555394</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L41" t="n">
-        <v>2047.588607372513</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M41" t="n">
-        <v>2342.291394605963</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N41" t="n">
-        <v>2342.291394605963</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O41" t="n">
-        <v>2342.291394605963</v>
+        <v>4935.721337874071</v>
       </c>
       <c r="P41" t="n">
-        <v>3050.570673763891</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q41" t="n">
-        <v>3506.656153268074</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R41" t="n">
-        <v>3624.212488149977</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S41" t="n">
-        <v>3624.212488149977</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T41" t="n">
-        <v>3624.212488149977</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U41" t="n">
-        <v>3365.85757874639</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V41" t="n">
-        <v>3365.85757874639</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W41" t="n">
-        <v>3365.85757874639</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X41" t="n">
-        <v>3336.068668757126</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y41" t="n">
-        <v>2930.731398712017</v>
+        <v>2960.549862354847</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>639.6077407944548</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C42" t="n">
-        <v>522.1018373119596</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D42" t="n">
-        <v>418.2618788272446</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E42" t="n">
-        <v>313.5599451001818</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F42" t="n">
-        <v>219.9141147830859</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G42" t="n">
-        <v>125.86034300069</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H42" t="n">
-        <v>72.48424976299954</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I42" t="n">
-        <v>79.93089272491137</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J42" t="n">
-        <v>351.6283820045024</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K42" t="n">
-        <v>351.6283820045024</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="L42" t="n">
-        <v>351.6283820045024</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="M42" t="n">
-        <v>1248.620972821622</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="N42" t="n">
-        <v>1417.02640348073</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="O42" t="n">
-        <v>1417.02640348073</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="P42" t="n">
-        <v>1417.02640348073</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q42" t="n">
-        <v>1881.171880343509</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R42" t="n">
-        <v>1881.171880343509</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S42" t="n">
-        <v>1799.847632904764</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T42" t="n">
-        <v>1657.967697202442</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U42" t="n">
-        <v>1473.199501122079</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V42" t="n">
-        <v>1268.226362261345</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W42" t="n">
-        <v>1071.704985094562</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X42" t="n">
-        <v>908.2276388612252</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y42" t="n">
-        <v>768.5347502145175</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>343.6019286254902</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C43" t="n">
-        <v>171.6293655044062</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D43" t="n">
-        <v>171.6293655044062</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E43" t="n">
-        <v>171.6293655044062</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F43" t="n">
-        <v>72.48424976299954</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G43" t="n">
-        <v>72.48424976299954</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H43" t="n">
-        <v>72.48424976299954</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I43" t="n">
-        <v>72.48424976299954</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J43" t="n">
-        <v>129.9755779871575</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K43" t="n">
-        <v>356.5031791929947</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L43" t="n">
-        <v>711.1925004874155</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M43" t="n">
-        <v>1102.378295457666</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N43" t="n">
-        <v>1479.869806333702</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O43" t="n">
-        <v>1835.297935013465</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P43" t="n">
-        <v>2125.897146935366</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q43" t="n">
-        <v>2252.897277176128</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R43" t="n">
-        <v>2252.897277176128</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S43" t="n">
-        <v>2082.762229695263</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T43" t="n">
-        <v>1839.422881921163</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U43" t="n">
-        <v>1559.238433421467</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V43" t="n">
-        <v>1277.526966029496</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W43" t="n">
-        <v>1002.674562202009</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X43" t="n">
-        <v>760.1106656478138</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y43" t="n">
-        <v>533.7678973375558</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1681.419790199335</v>
+        <v>2540.701498063317</v>
       </c>
       <c r="C44" t="n">
-        <v>1254.519060212636</v>
+        <v>2113.800768076617</v>
       </c>
       <c r="D44" t="n">
-        <v>831.2264393976359</v>
+        <v>1690.508147261617</v>
       </c>
       <c r="E44" t="n">
-        <v>405.2494995454935</v>
+        <v>1264.531207409475</v>
       </c>
       <c r="F44" t="n">
-        <v>405.2494995454935</v>
+        <v>839.4070255988752</v>
       </c>
       <c r="G44" t="n">
-        <v>405.2494995454935</v>
+        <v>435.0679631883226</v>
       </c>
       <c r="H44" t="n">
-        <v>107.3811210195283</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I44" t="n">
-        <v>72.48424976299954</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J44" t="n">
-        <v>72.48424976299954</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K44" t="n">
-        <v>787.9925577384986</v>
+        <v>533.9931985757493</v>
       </c>
       <c r="L44" t="n">
-        <v>1684.985148555618</v>
+        <v>1463.618246195026</v>
       </c>
       <c r="M44" t="n">
-        <v>1764.518912300143</v>
+        <v>2467.904347614084</v>
       </c>
       <c r="N44" t="n">
-        <v>2661.511503117262</v>
+        <v>3444.155406100785</v>
       </c>
       <c r="O44" t="n">
-        <v>3506.656153268074</v>
+        <v>4289.300056251597</v>
       </c>
       <c r="P44" t="n">
-        <v>3506.656153268074</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="Q44" t="n">
-        <v>3506.656153268074</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R44" t="n">
-        <v>3624.212488149977</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S44" t="n">
-        <v>3519.845194023118</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T44" t="n">
-        <v>3298.919623067751</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U44" t="n">
-        <v>3040.564713664163</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V44" t="n">
-        <v>2894.868408776351</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W44" t="n">
-        <v>2498.477059076698</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X44" t="n">
-        <v>2086.757060244445</v>
+        <v>3365.887132399957</v>
       </c>
       <c r="Y44" t="n">
-        <v>1681.419790199335</v>
+        <v>2960.549862354847</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>639.6077407944548</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C45" t="n">
-        <v>522.1018373119596</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D45" t="n">
-        <v>418.2618788272446</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E45" t="n">
-        <v>313.5599451001818</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F45" t="n">
-        <v>219.9141147830859</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G45" t="n">
-        <v>125.86034300069</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H45" t="n">
-        <v>72.48424976299954</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I45" t="n">
-        <v>72.48424976299954</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J45" t="n">
-        <v>344.1817390425906</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K45" t="n">
-        <v>344.1817390425906</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L45" t="n">
-        <v>1180.980547125497</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M45" t="n">
-        <v>1180.980547125497</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N45" t="n">
-        <v>1180.980547125497</v>
+        <v>971.931772215671</v>
       </c>
       <c r="O45" t="n">
-        <v>1881.171880343509</v>
+        <v>971.931772215671</v>
       </c>
       <c r="P45" t="n">
-        <v>1881.171880343509</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q45" t="n">
-        <v>1881.171880343509</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R45" t="n">
-        <v>1881.171880343509</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S45" t="n">
-        <v>1799.847632904764</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T45" t="n">
-        <v>1657.967697202442</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U45" t="n">
-        <v>1473.199501122079</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V45" t="n">
-        <v>1268.226362261345</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W45" t="n">
-        <v>1071.704985094562</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X45" t="n">
-        <v>908.2276388612252</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y45" t="n">
-        <v>768.5347502145175</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1155.665372287236</v>
+        <v>681.0460972560671</v>
       </c>
       <c r="C46" t="n">
-        <v>983.6928091661524</v>
+        <v>681.0460972560671</v>
       </c>
       <c r="D46" t="n">
-        <v>820.3760362929231</v>
+        <v>517.7293243828378</v>
       </c>
       <c r="E46" t="n">
-        <v>654.1678304457766</v>
+        <v>517.7293243828378</v>
       </c>
       <c r="F46" t="n">
-        <v>482.306056220337</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="G46" t="n">
-        <v>316.0490865145692</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H46" t="n">
-        <v>172.2528180227236</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I46" t="n">
-        <v>72.48424976299954</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J46" t="n">
-        <v>129.9755779871575</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K46" t="n">
-        <v>356.5031791929947</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L46" t="n">
-        <v>711.1925004874155</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M46" t="n">
-        <v>1102.378295457666</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N46" t="n">
-        <v>1479.869806333702</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O46" t="n">
-        <v>1835.297935013465</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P46" t="n">
-        <v>2125.897146935366</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q46" t="n">
-        <v>2252.897277176128</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R46" t="n">
-        <v>2205.858663863301</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S46" t="n">
-        <v>2035.723616382436</v>
+        <v>2145.353994498352</v>
       </c>
       <c r="T46" t="n">
-        <v>1792.384268608336</v>
+        <v>1902.014646724252</v>
       </c>
       <c r="U46" t="n">
-        <v>1512.19982010864</v>
+        <v>1621.830198224557</v>
       </c>
       <c r="V46" t="n">
-        <v>1512.19982010864</v>
+        <v>1340.118730832585</v>
       </c>
       <c r="W46" t="n">
-        <v>1237.347416281153</v>
+        <v>1340.118730832585</v>
       </c>
       <c r="X46" t="n">
-        <v>1237.347416281153</v>
+        <v>1097.554834278391</v>
       </c>
       <c r="Y46" t="n">
-        <v>1155.665372287236</v>
+        <v>871.2120659681327</v>
       </c>
     </row>
   </sheetData>
@@ -7979,28 +7981,28 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K2" t="n">
-        <v>497.1645065551435</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L2" t="n">
-        <v>499.7119481929572</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M2" t="n">
-        <v>498.831168659766</v>
+        <v>406.0019360838922</v>
       </c>
       <c r="N2" t="n">
-        <v>480.0371081600191</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O2" t="n">
-        <v>37.3909593560241</v>
+        <v>521.1676505099938</v>
       </c>
       <c r="P2" t="n">
-        <v>37.5753618102313</v>
+        <v>521.352052964201</v>
       </c>
       <c r="Q2" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R2" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8055,31 +8057,31 @@
         <v>16.17238675</v>
       </c>
       <c r="J3" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K3" t="n">
         <v>22.39923383333334</v>
       </c>
       <c r="L3" t="n">
-        <v>22.51508671422956</v>
+        <v>506.2917778681993</v>
       </c>
       <c r="M3" t="n">
-        <v>23.09678051232798</v>
+        <v>506.8734716662977</v>
       </c>
       <c r="N3" t="n">
-        <v>482.7429339738759</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O3" t="n">
-        <v>465.9293750477953</v>
+        <v>506.948580876192</v>
       </c>
       <c r="P3" t="n">
-        <v>483.1707469651629</v>
+        <v>40.10827402192496</v>
       </c>
       <c r="Q3" t="n">
-        <v>484.1469440493127</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R3" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8143,10 +8145,10 @@
         <v>380.1908016072373</v>
       </c>
       <c r="M4" t="n">
-        <v>42.2324077072759</v>
+        <v>417.7126065281028</v>
       </c>
       <c r="N4" t="n">
-        <v>402.0534574160406</v>
+        <v>115.1762876285988</v>
       </c>
       <c r="O4" t="n">
         <v>381.5174992961649</v>
@@ -8219,22 +8221,22 @@
         <v>35.76460079480934</v>
       </c>
       <c r="L5" t="n">
-        <v>457.4595408934817</v>
+        <v>594.539855548217</v>
       </c>
       <c r="M5" t="n">
-        <v>498.831168659766</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N5" t="n">
-        <v>498.6795285947802</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O5" t="n">
-        <v>37.3909593560241</v>
+        <v>593.6187724716183</v>
       </c>
       <c r="P5" t="n">
-        <v>37.5753618102313</v>
+        <v>181.8548408418185</v>
       </c>
       <c r="Q5" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R5" t="n">
         <v>153.7764225027789</v>
@@ -8289,13 +8291,13 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J6" t="n">
         <v>295.0530226965566</v>
       </c>
       <c r="K6" t="n">
-        <v>22.39923383333334</v>
+        <v>578.6270469489275</v>
       </c>
       <c r="L6" t="n">
         <v>22.51508671422956</v>
@@ -8304,16 +8306,16 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N6" t="n">
-        <v>106.8108172115448</v>
+        <v>458.427044786356</v>
       </c>
       <c r="O6" t="n">
-        <v>484.5717954825564</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P6" t="n">
-        <v>483.1707469651629</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q6" t="n">
-        <v>484.1469440493127</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R6" t="n">
         <v>106.5207073584907</v>
@@ -8383,13 +8385,13 @@
         <v>417.7126065281028</v>
       </c>
       <c r="N7" t="n">
-        <v>320.1078160920833</v>
+        <v>402.0534574160406</v>
       </c>
       <c r="O7" t="n">
         <v>381.5174992961649</v>
       </c>
       <c r="P7" t="n">
-        <v>22.38080065798648</v>
+        <v>315.9153581548562</v>
       </c>
       <c r="Q7" t="n">
         <v>152.9025226039384</v>
@@ -8450,25 +8452,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K8" t="n">
-        <v>112.2559661033163</v>
+        <v>591.9924139104035</v>
       </c>
       <c r="L8" t="n">
-        <v>499.7119481929572</v>
+        <v>594.539855548217</v>
       </c>
       <c r="M8" t="n">
-        <v>498.831168659766</v>
+        <v>593.6590760150259</v>
       </c>
       <c r="N8" t="n">
-        <v>498.6795285947802</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O8" t="n">
         <v>37.3909593560241</v>
       </c>
       <c r="P8" t="n">
-        <v>37.5753618102313</v>
+        <v>571.3293238908518</v>
       </c>
       <c r="Q8" t="n">
         <v>36.12467460459804</v>
@@ -8532,22 +8534,22 @@
         <v>295.0530226965566</v>
       </c>
       <c r="K9" t="n">
-        <v>483.7991395936675</v>
+        <v>379.6111138811506</v>
       </c>
       <c r="L9" t="n">
-        <v>22.51508671422956</v>
+        <v>578.7428998298237</v>
       </c>
       <c r="M9" t="n">
-        <v>108.5645695103311</v>
+        <v>579.3245936279221</v>
       </c>
       <c r="N9" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O9" t="n">
-        <v>484.5717954825564</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P9" t="n">
-        <v>483.1707469651629</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q9" t="n">
         <v>22.7470382889785</v>
@@ -8620,7 +8622,7 @@
         <v>417.7126065281028</v>
       </c>
       <c r="N10" t="n">
-        <v>154.8562184343671</v>
+        <v>402.0534574160406</v>
       </c>
       <c r="O10" t="n">
         <v>381.5174992961649</v>
@@ -8629,7 +8631,7 @@
         <v>315.9153581548562</v>
       </c>
       <c r="Q10" t="n">
-        <v>24.61956276478495</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8687,25 +8689,25 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K11" t="n">
         <v>758.5002654165255</v>
       </c>
       <c r="L11" t="n">
-        <v>944.365164470117</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M11" t="n">
-        <v>776.2991726233215</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N11" t="n">
-        <v>37.27962283444602</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O11" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P11" t="n">
-        <v>37.5753618102313</v>
+        <v>585.0680802286663</v>
       </c>
       <c r="Q11" t="n">
         <v>36.12467460459804</v>
@@ -8763,16 +8765,16 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J12" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K12" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L12" t="n">
-        <v>22.51508671422956</v>
+        <v>529.5908311320803</v>
       </c>
       <c r="M12" t="n">
         <v>23.09678051232798</v>
@@ -8781,7 +8783,7 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O12" t="n">
-        <v>761.8854970109149</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P12" t="n">
         <v>745.2028786174529</v>
@@ -8790,7 +8792,7 @@
         <v>22.7470382889785</v>
       </c>
       <c r="R12" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8924,25 +8926,25 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>176.1292099503548</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K14" t="n">
         <v>758.5002654165255</v>
       </c>
       <c r="L14" t="n">
-        <v>944.365164470117</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M14" t="n">
-        <v>943.4843849369258</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N14" t="n">
-        <v>943.3327448719401</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O14" t="n">
-        <v>37.3909593560241</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P14" t="n">
-        <v>37.5753618102313</v>
+        <v>585.0680802286672</v>
       </c>
       <c r="Q14" t="n">
         <v>36.12467460459804</v>
@@ -9012,22 +9014,22 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M15" t="n">
-        <v>264.7036523409624</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N15" t="n">
-        <v>927.3961502510357</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O15" t="n">
-        <v>23.17188972222222</v>
+        <v>530.2476341400729</v>
       </c>
       <c r="P15" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q15" t="n">
         <v>22.7470382889785</v>
       </c>
       <c r="R15" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9167,7 +9169,7 @@
         <v>758.5002654165255</v>
       </c>
       <c r="L17" t="n">
-        <v>443.1202251383847</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M17" t="n">
         <v>1051.861668373228</v>
@@ -9176,13 +9178,13 @@
         <v>1023.391803124043</v>
       </c>
       <c r="O17" t="n">
-        <v>891.0724241548241</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P17" t="n">
-        <v>753.0089771212694</v>
+        <v>611.7910214708227</v>
       </c>
       <c r="Q17" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R17" t="n">
         <v>35.03264989479647</v>
@@ -9240,10 +9242,10 @@
         <v>16.17238675</v>
       </c>
       <c r="J18" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K18" t="n">
-        <v>299.8008876868062</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L18" t="n">
         <v>22.51508671422956</v>
@@ -9255,16 +9257,16 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O18" t="n">
-        <v>23.17188972222222</v>
+        <v>530.2476341400729</v>
       </c>
       <c r="P18" t="n">
         <v>745.2028786174529</v>
       </c>
       <c r="Q18" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R18" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9401,13 +9403,13 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K20" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L20" t="n">
-        <v>952.685833629606</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M20" t="n">
-        <v>1051.861668373228</v>
+        <v>304.4845953330648</v>
       </c>
       <c r="N20" t="n">
         <v>1023.391803124043</v>
@@ -9477,10 +9479,10 @@
         <v>16.17238675</v>
       </c>
       <c r="J21" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K21" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L21" t="n">
         <v>22.51508671422956</v>
@@ -9489,10 +9491,10 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N21" t="n">
-        <v>1105.024507443985</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O21" t="n">
-        <v>23.17188972222222</v>
+        <v>784.8458565397888</v>
       </c>
       <c r="P21" t="n">
         <v>21.77084120482866</v>
@@ -9635,10 +9637,10 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K23" t="n">
-        <v>590.5593685239236</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L23" t="n">
         <v>977.3272420480539</v>
@@ -9653,13 +9655,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P23" t="n">
-        <v>753.0089771212694</v>
+        <v>100.0581876036193</v>
       </c>
       <c r="Q23" t="n">
         <v>36.12467460459804</v>
       </c>
       <c r="R23" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9726,10 +9728,10 @@
         <v>1089.749849175</v>
       </c>
       <c r="N24" t="n">
-        <v>781.6471621574452</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O24" t="n">
-        <v>23.17188972222222</v>
+        <v>783.4760236661258</v>
       </c>
       <c r="P24" t="n">
         <v>21.77084120482866</v>
@@ -9872,7 +9874,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K26" t="n">
         <v>758.5002654165255</v>
@@ -9881,7 +9883,7 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M26" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N26" t="n">
         <v>1023.391803124043</v>
@@ -9890,13 +9892,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P26" t="n">
-        <v>585.0680802286672</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q26" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R26" t="n">
-        <v>35.03264989479647</v>
+        <v>54.56363491934598</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9957,10 +9959,10 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L27" t="n">
-        <v>867.7664080100944</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M27" t="n">
-        <v>23.09678051232798</v>
+        <v>951.5880457335786</v>
       </c>
       <c r="N27" t="n">
         <v>21.34302821354166</v>
@@ -9972,7 +9974,7 @@
         <v>21.77084120482866</v>
       </c>
       <c r="Q27" t="n">
-        <v>105.9869822143642</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R27" t="n">
         <v>23.67291939414415</v>
@@ -10188,7 +10190,7 @@
         <v>16.17238675</v>
       </c>
       <c r="J30" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K30" t="n">
         <v>22.39923383333334</v>
@@ -10197,7 +10199,7 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M30" t="n">
-        <v>475.2939470053066</v>
+        <v>749.7358553685299</v>
       </c>
       <c r="N30" t="n">
         <v>1121.661155963915</v>
@@ -10349,7 +10351,7 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K32" t="n">
-        <v>590.5593685239236</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L32" t="n">
         <v>977.3272420480539</v>
@@ -10364,7 +10366,7 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P32" t="n">
-        <v>753.0089771212694</v>
+        <v>585.0680802286672</v>
       </c>
       <c r="Q32" t="n">
         <v>36.12467460459804</v>
@@ -10434,19 +10436,19 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M33" t="n">
-        <v>23.09678051232798</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N33" t="n">
-        <v>949.8342934347922</v>
+        <v>312.8133471445368</v>
       </c>
       <c r="O33" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P33" t="n">
         <v>21.77084120482866</v>
       </c>
       <c r="Q33" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R33" t="n">
         <v>23.67291939414415</v>
@@ -10589,7 +10591,7 @@
         <v>758.5002654165255</v>
       </c>
       <c r="L35" t="n">
-        <v>697.8614369098447</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M35" t="n">
         <v>1051.861668373228</v>
@@ -10601,10 +10603,10 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P35" t="n">
-        <v>37.5753618102313</v>
+        <v>218.8019602116015</v>
       </c>
       <c r="Q35" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R35" t="n">
         <v>35.03264989479647</v>
@@ -10659,34 +10661,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J36" t="n">
         <v>295.0530226965566</v>
       </c>
       <c r="K36" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L36" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M36" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N36" t="n">
-        <v>21.34302821354166</v>
+        <v>425.7272987035383</v>
       </c>
       <c r="O36" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P36" t="n">
-        <v>31.27739019491188</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q36" t="n">
         <v>491.5808533018869</v>
       </c>
       <c r="R36" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10820,10 +10822,10 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K38" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L38" t="n">
         <v>977.3272420480539</v>
@@ -10838,13 +10840,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P38" t="n">
-        <v>753.0089771212694</v>
+        <v>585.0680802286663</v>
       </c>
       <c r="Q38" t="n">
-        <v>105.9095497086638</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R38" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10905,16 +10907,16 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L39" t="n">
-        <v>749.1541615704315</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M39" t="n">
-        <v>23.09678051232798</v>
+        <v>106.3367244377138</v>
       </c>
       <c r="N39" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O39" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P39" t="n">
         <v>21.77084120482866</v>
@@ -11063,25 +11065,25 @@
         <v>758.5002654165255</v>
       </c>
       <c r="L41" t="n">
-        <v>944.3651644701172</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M41" t="n">
-        <v>335.1108459635229</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N41" t="n">
-        <v>37.27962283444602</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O41" t="n">
-        <v>37.3909593560241</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P41" t="n">
-        <v>753.0089771212694</v>
+        <v>218.8019602116015</v>
       </c>
       <c r="Q41" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R41" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11133,31 +11135,31 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J42" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K42" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L42" t="n">
-        <v>22.51508671422956</v>
+        <v>529.5908311320803</v>
       </c>
       <c r="M42" t="n">
-        <v>929.1499025498223</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N42" t="n">
-        <v>191.4495238288026</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O42" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P42" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q42" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R42" t="n">
         <v>23.67291939414415</v>
@@ -11297,22 +11299,22 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K44" t="n">
-        <v>758.5002654165255</v>
+        <v>471.8155959159414</v>
       </c>
       <c r="L44" t="n">
-        <v>944.3651644701172</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M44" t="n">
-        <v>117.7683979949116</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N44" t="n">
-        <v>943.3327448719403</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O44" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P44" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q44" t="n">
         <v>36.12467460459804</v>
@@ -11370,16 +11372,16 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J45" t="n">
         <v>295.0530226965566</v>
       </c>
       <c r="K45" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L45" t="n">
-        <v>867.7664080100944</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M45" t="n">
         <v>23.09678051232798</v>
@@ -11388,16 +11390,16 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O45" t="n">
-        <v>730.4358626697098</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P45" t="n">
-        <v>21.77084120482866</v>
+        <v>418.6332501171365</v>
       </c>
       <c r="Q45" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R45" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23258,13 +23260,13 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>26.99095727899567</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23306,13 +23308,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23413,25 +23415,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>71.98949189919259</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>142.3583058069271</v>
+        <v>52.69001940724856</v>
       </c>
       <c r="I13" t="n">
         <v>98.77088257712678</v>
@@ -23479,10 +23481,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="14">
@@ -23513,7 +23515,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,25 +23545,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>87.79251510104507</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23650,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D16" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E16" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>142.3583058069271</v>
+        <v>52.92768073081061</v>
       </c>
       <c r="I16" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,16 +23700,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>71.98949189919266</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -24136,7 +24138,7 @@
         <v>164.546123788675</v>
       </c>
       <c r="F22" t="n">
-        <v>71.98949189919249</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>164.5944000087102</v>
@@ -24175,7 +24177,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24364,7 +24366,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>71.98949189919249</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>161.683605144497</v>
@@ -24373,7 +24375,7 @@
         <v>164.546123788675</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>71.9894918991925</v>
       </c>
       <c r="G25" t="n">
         <v>164.5944000087102</v>
@@ -24607,19 +24609,19 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,19 +24648,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S28" t="n">
-        <v>50.61322712175749</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>117.2205539080143</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24667,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24835,25 +24837,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D31" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>13.62668311841711</v>
       </c>
       <c r="G31" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H31" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>98.77088257712678</v>
@@ -24886,7 +24888,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S31" t="n">
-        <v>71.9894918991922</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25081,19 +25083,19 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>34.50603394022494</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25126,19 +25128,19 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X34" t="n">
-        <v>240.1382575886529</v>
+        <v>60.1185983045572</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25309,28 +25311,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D37" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G37" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25360,7 +25362,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S37" t="n">
-        <v>71.9894918991922</v>
+        <v>51.20316559996989</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25378,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="38">
@@ -25552,13 +25554,13 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>161.683605144497</v>
+        <v>110.0981677402028</v>
       </c>
       <c r="E40" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F40" t="n">
-        <v>71.9894918991925</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G40" t="n">
         <v>164.5944000087102</v>
@@ -25594,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25676,22 +25678,22 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>378.1117779545597</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25795,7 +25797,7 @@
         <v>164.546123788675</v>
       </c>
       <c r="F43" t="n">
-        <v>71.9894918991926</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>164.5944000087102</v>
@@ -25834,7 +25836,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25862,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -25874,10 +25876,10 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -25922,7 +25924,7 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>209.6751788860796</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -26020,22 +26022,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -26071,7 +26073,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>79.01379532835641</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26080,16 +26082,16 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X46" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>143.2141170731778</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>563188.5211621948</v>
+        <v>564794.8940785701</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>563188.5211621948</v>
+        <v>569995.9771668164</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>563188.5211621948</v>
+        <v>569995.9771668164</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>470682.3358305384</v>
+        <v>591989.3965311549</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>470682.3358305384</v>
+        <v>591989.3965311549</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>591989.3965311548</v>
+        <v>591989.3965311549</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>591989.3965311548</v>
+        <v>591989.3965311549</v>
       </c>
     </row>
     <row r="9">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>591989.3965311549</v>
+        <v>591989.396531155</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>591989.396531155</v>
+        <v>591989.3965311549</v>
       </c>
     </row>
     <row r="13">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>470682.3358305384</v>
+        <v>591989.3965311549</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>470682.3358305384</v>
+        <v>591989.3965311549</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>509637.3345097678</v>
+      </c>
+      <c r="C2" t="n">
         <v>509637.3345097676</v>
       </c>
-      <c r="C2" t="n">
+      <c r="D2" t="n">
         <v>509637.3345097678</v>
       </c>
-      <c r="D2" t="n">
-        <v>509637.3345097677</v>
-      </c>
       <c r="E2" t="n">
-        <v>391028.3185382717</v>
+        <v>491776.6027452663</v>
       </c>
       <c r="F2" t="n">
-        <v>391028.3185382718</v>
+        <v>491776.6027452664</v>
       </c>
       <c r="G2" t="n">
+        <v>491776.6027452664</v>
+      </c>
+      <c r="H2" t="n">
+        <v>491776.6027452664</v>
+      </c>
+      <c r="I2" t="n">
+        <v>491776.6027452663</v>
+      </c>
+      <c r="J2" t="n">
+        <v>491776.6027452664</v>
+      </c>
+      <c r="K2" t="n">
+        <v>491776.6027452662</v>
+      </c>
+      <c r="L2" t="n">
+        <v>491776.6027452663</v>
+      </c>
+      <c r="M2" t="n">
+        <v>491776.6027452663</v>
+      </c>
+      <c r="N2" t="n">
+        <v>491776.6027452663</v>
+      </c>
+      <c r="O2" t="n">
         <v>491776.6027452665</v>
       </c>
-      <c r="H2" t="n">
-        <v>491776.6027452662</v>
-      </c>
-      <c r="I2" t="n">
-        <v>491776.6027452666</v>
-      </c>
-      <c r="J2" t="n">
-        <v>491776.6027452663</v>
-      </c>
-      <c r="K2" t="n">
-        <v>491776.6027452663</v>
-      </c>
-      <c r="L2" t="n">
-        <v>491776.6027452666</v>
-      </c>
-      <c r="M2" t="n">
-        <v>491776.6027452665</v>
-      </c>
-      <c r="N2" t="n">
-        <v>491776.6027452665</v>
-      </c>
-      <c r="O2" t="n">
-        <v>391028.3185382718</v>
-      </c>
       <c r="P2" t="n">
-        <v>391028.3185382716</v>
+        <v>491776.6027452664</v>
       </c>
     </row>
     <row r="3">
@@ -26363,22 +26365,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>154625.7206181205</v>
+        <v>162124.6960695918</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>23406.83367361165</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>132763.6680096019</v>
+        <v>215739.3565566405</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>102159.9200943099</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>120722.5169427569</v>
+        <v>126577.2685802893</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>18646.60035701934</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>110809.3601091334</v>
+        <v>180063.8714551676</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,19 +26417,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>214761.4484639727</v>
+        <v>211246.623646525</v>
       </c>
       <c r="C4" t="n">
-        <v>214761.4484639727</v>
+        <v>199866.3919893415</v>
       </c>
       <c r="D4" t="n">
-        <v>214761.4484639727</v>
+        <v>199866.3919893415</v>
       </c>
       <c r="E4" t="n">
-        <v>80277.85946797878</v>
+        <v>101012.8540458318</v>
       </c>
       <c r="F4" t="n">
-        <v>80277.85946797879</v>
+        <v>101012.8540458318</v>
       </c>
       <c r="G4" t="n">
         <v>101012.8540458318</v>
@@ -26439,13 +26441,13 @@
         <v>101012.8540458319</v>
       </c>
       <c r="J4" t="n">
+        <v>101012.8540458319</v>
+      </c>
+      <c r="K4" t="n">
+        <v>101012.8540458319</v>
+      </c>
+      <c r="L4" t="n">
         <v>101012.8540458318</v>
-      </c>
-      <c r="K4" t="n">
-        <v>101012.8540458318</v>
-      </c>
-      <c r="L4" t="n">
-        <v>101012.8540458319</v>
       </c>
       <c r="M4" t="n">
         <v>101012.8540458319</v>
@@ -26454,10 +26456,10 @@
         <v>101012.8540458318</v>
       </c>
       <c r="O4" t="n">
-        <v>80277.85946797879</v>
+        <v>101012.8540458318</v>
       </c>
       <c r="P4" t="n">
-        <v>80277.85946797879</v>
+        <v>101012.8540458318</v>
       </c>
     </row>
     <row r="5">
@@ -26467,25 +26469,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>61680.71427022832</v>
+        <v>63041.22282216136</v>
       </c>
       <c r="C5" t="n">
-        <v>61680.71427022832</v>
+        <v>67446.25103742813</v>
       </c>
       <c r="D5" t="n">
-        <v>61680.71427022832</v>
+        <v>67446.25103742813</v>
       </c>
       <c r="E5" t="n">
-        <v>55088.02981987964</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="F5" t="n">
-        <v>55088.02981987964</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="G5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="H5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="I5" t="n">
         <v>77750.06218842969</v>
@@ -26503,13 +26505,13 @@
         <v>77750.06218842969</v>
       </c>
       <c r="N5" t="n">
+        <v>77750.06218842967</v>
+      </c>
+      <c r="O5" t="n">
         <v>77750.06218842969</v>
       </c>
-      <c r="O5" t="n">
-        <v>55088.02981987965</v>
-      </c>
       <c r="P5" t="n">
-        <v>55088.02981987965</v>
+        <v>77750.06218842969</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>78569.45115744605</v>
+        <v>73224.7919714897</v>
       </c>
       <c r="C6" t="n">
-        <v>233195.1717755667</v>
+        <v>218917.8578093863</v>
       </c>
       <c r="D6" t="n">
-        <v>233195.1717755667</v>
+        <v>242324.6914829982</v>
       </c>
       <c r="E6" t="n">
-        <v>122898.7612408114</v>
+        <v>97274.32995436425</v>
       </c>
       <c r="F6" t="n">
-        <v>255662.4292504134</v>
+        <v>313013.6865110049</v>
       </c>
       <c r="G6" t="n">
-        <v>210853.7664166952</v>
+        <v>313013.6865110049</v>
       </c>
       <c r="H6" t="n">
-        <v>313013.6865110047</v>
+        <v>313013.6865110049</v>
       </c>
       <c r="I6" t="n">
-        <v>313013.6865110051</v>
+        <v>313013.6865110048</v>
       </c>
       <c r="J6" t="n">
-        <v>192291.1695682479</v>
+        <v>186436.4179307156</v>
       </c>
       <c r="K6" t="n">
+        <v>294367.0861539854</v>
+      </c>
+      <c r="L6" t="n">
         <v>313013.6865110048</v>
       </c>
-      <c r="L6" t="n">
-        <v>313013.686511005</v>
-      </c>
       <c r="M6" t="n">
-        <v>202204.3264018716</v>
+        <v>132949.8150558372</v>
       </c>
       <c r="N6" t="n">
         <v>313013.6865110049</v>
       </c>
       <c r="O6" t="n">
-        <v>255662.4292504133</v>
+        <v>313013.6865110049</v>
       </c>
       <c r="P6" t="n">
-        <v>255662.4292504131</v>
+        <v>313013.6865110049</v>
       </c>
     </row>
   </sheetData>
@@ -26787,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>461.3999057603342</v>
+        <v>483.7766911539698</v>
       </c>
       <c r="C4" t="n">
-        <v>461.3999057603342</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="D4" t="n">
-        <v>461.3999057603342</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="E4" t="n">
-        <v>906.0531220374941</v>
+        <v>1278.783917572857</v>
       </c>
       <c r="F4" t="n">
-        <v>906.0531220374941</v>
+        <v>1278.783917572857</v>
       </c>
       <c r="G4" t="n">
         <v>1278.783917572857</v>
@@ -26826,10 +26828,10 @@
         <v>1278.783917572857</v>
       </c>
       <c r="O4" t="n">
-        <v>906.0531220374943</v>
+        <v>1278.783917572857</v>
       </c>
       <c r="P4" t="n">
-        <v>906.0531220374943</v>
+        <v>1278.783917572857</v>
       </c>
     </row>
   </sheetData>
@@ -27009,22 +27011,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>461.3999057603342</v>
+        <v>483.7766911539698</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>72.45112196162438</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>444.6532162771599</v>
+        <v>722.5561044572624</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>372.7307955353625</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>461.3999057603341</v>
+        <v>483.7766911539698</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>72.45112196162438</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>444.6532162771599</v>
+        <v>722.5561044572624</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,22 +27257,22 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>461.3999057603342</v>
+        <v>483.7766911539698</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>72.45112196162438</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>444.6532162771599</v>
+        <v>722.5561044572624</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>372.7307955353625</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27379,13 +27381,13 @@
         <v>400</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="D2" t="n">
-        <v>400</v>
+        <v>161.1107906177902</v>
       </c>
       <c r="E2" t="n">
-        <v>56.3845458182962</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27394,7 +27396,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27427,7 +27429,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T2" t="n">
         <v>218.7163152458132</v>
@@ -27534,10 +27536,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>158.961288031729</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27549,7 +27551,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27585,25 +27587,25 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>277.3826040146988</v>
+        <v>116.4635197904264</v>
       </c>
       <c r="V4" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="5">
@@ -27613,28 +27615,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>164.2046760811751</v>
+        <v>400</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>64.11088921096791</v>
       </c>
       <c r="H5" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27676,13 +27678,13 @@
         <v>353.914520725013</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X5" t="n">
         <v>400</v>
       </c>
       <c r="Y5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27774,22 +27776,22 @@
         <v>188.264309024945</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>12.06616725231314</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E7" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F7" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -27819,7 +27821,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -27831,7 +27833,7 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V7" t="n">
-        <v>111.2302801419775</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27853,25 +27855,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>350.5048792244489</v>
+      </c>
+      <c r="F8" t="n">
         <v>400</v>
       </c>
-      <c r="D8" t="n">
+      <c r="G8" t="n">
         <v>400</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" t="n">
-        <v>56.38454581829637</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>294.8896947407055</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,7 +27903,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T8" t="n">
         <v>218.7163152458132</v>
@@ -27916,10 +27918,10 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28017,19 +28019,19 @@
         <v>161.683605144497</v>
       </c>
       <c r="E10" t="n">
-        <v>56.38111682605847</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>164.5944000087102</v>
+        <v>12.06616725231322</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,28 +28058,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -29326,7 +29328,7 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>-9.189731873468358e-13</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -29560,7 +29562,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>-9.379164112033322e-13</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -34699,28 +34701,28 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>461.3999057603342</v>
+        <v>368.5706731844604</v>
       </c>
       <c r="N2" t="n">
-        <v>442.7574853255731</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>483.7766911539698</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>483.7766911539698</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,31 +34777,31 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>483.7766911539698</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>483.7766911539698</v>
       </c>
       <c r="N3" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>442.7574853255731</v>
+        <v>483.7766911539698</v>
       </c>
       <c r="P3" t="n">
-        <v>461.3999057603342</v>
+        <v>18.33743281709629</v>
       </c>
       <c r="Q3" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34863,10 +34865,10 @@
         <v>358.2720417115361</v>
       </c>
       <c r="M4" t="n">
-        <v>19.65696781579008</v>
+        <v>395.137166636617</v>
       </c>
       <c r="N4" t="n">
-        <v>381.3045564404402</v>
+        <v>94.42738665299836</v>
       </c>
       <c r="O4" t="n">
         <v>359.0183117977405</v>
@@ -34939,22 +34941,22 @@
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>419.1474984608587</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M5" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>144.2794790315872</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R5" t="n">
         <v>118.7437726079824</v>
@@ -35009,13 +35011,13 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J6" t="n">
         <v>274.4419083632233</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -35024,16 +35026,16 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>85.46778899800317</v>
+        <v>437.0840165728143</v>
       </c>
       <c r="O6" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>461.3999057603342</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R6" t="n">
         <v>82.84778796434657</v>
@@ -35103,13 +35105,13 @@
         <v>395.137166636617</v>
       </c>
       <c r="N7" t="n">
-        <v>299.3589151164829</v>
+        <v>381.3045564404402</v>
       </c>
       <c r="O7" t="n">
         <v>359.0183117977405</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>293.5345574968697</v>
       </c>
       <c r="Q7" t="n">
         <v>128.2829598391535</v>
@@ -35170,25 +35172,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>76.49136530850691</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L8" t="n">
-        <v>461.3999057603342</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M8" t="n">
-        <v>461.3999057603342</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="N8" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>533.7539620806206</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35252,22 +35254,22 @@
         <v>274.4419083632233</v>
       </c>
       <c r="K9" t="n">
-        <v>461.3999057603342</v>
+        <v>357.2118800478173</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M9" t="n">
-        <v>85.46778899800312</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35340,7 +35342,7 @@
         <v>395.137166636617</v>
       </c>
       <c r="N10" t="n">
-        <v>134.1073174587667</v>
+        <v>381.3045564404402</v>
       </c>
       <c r="O10" t="n">
         <v>359.0183117977405</v>
@@ -35349,7 +35351,7 @@
         <v>293.5345574968697</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>128.2829598391535</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35407,25 +35409,25 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>722.7356646217162</v>
       </c>
       <c r="L11" t="n">
-        <v>906.0531220374941</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M11" t="n">
-        <v>738.8679097238897</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O11" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>547.4927184184349</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -35483,16 +35485,16 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>507.0757444178507</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -35501,7 +35503,7 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>738.7136072886927</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>723.4320374126243</v>
@@ -35510,7 +35512,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35644,25 +35646,25 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>146.7092504647683</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>722.7356646217162</v>
       </c>
       <c r="L14" t="n">
-        <v>906.0531220374941</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M14" t="n">
-        <v>906.0531220374941</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N14" t="n">
-        <v>906.0531220374941</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>547.4927184184359</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -35732,22 +35734,22 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>241.6068718286344</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>906.0531220374941</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>507.0757444178507</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35811,7 +35813,7 @@
         <v>358.2720417115361</v>
       </c>
       <c r="M16" t="n">
-        <v>395.137166636617</v>
+        <v>395.13716663662</v>
       </c>
       <c r="N16" t="n">
         <v>381.3045564404402</v>
@@ -35887,7 +35889,7 @@
         <v>722.7356646217162</v>
       </c>
       <c r="L17" t="n">
-        <v>404.8081827057618</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M17" t="n">
         <v>1014.430405473796</v>
@@ -35896,13 +35898,13 @@
         <v>986.1121802895968</v>
       </c>
       <c r="O17" t="n">
-        <v>853.6814647988001</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>715.433615311038</v>
+        <v>574.2156596605913</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35960,10 +35962,10 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>277.4016538534729</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -35975,16 +35977,16 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>507.0757444178507</v>
       </c>
       <c r="P18" t="n">
         <v>723.4320374126243</v>
       </c>
       <c r="Q18" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36121,13 +36123,13 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L20" t="n">
-        <v>914.3737911969831</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M20" t="n">
-        <v>1014.430405473796</v>
+        <v>267.053332433633</v>
       </c>
       <c r="N20" t="n">
         <v>986.1121802895968</v>
@@ -36197,10 +36199,10 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -36209,10 +36211,10 @@
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>1083.681479230444</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>761.6739668175666</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36355,10 +36357,10 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K23" t="n">
-        <v>554.7947677291143</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L23" t="n">
         <v>939.015199615431</v>
@@ -36373,13 +36375,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P23" t="n">
-        <v>715.433615311038</v>
+        <v>62.48282579338804</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36446,10 +36448,10 @@
         <v>1066.653068662672</v>
       </c>
       <c r="N24" t="n">
+        <v>0</v>
+      </c>
+      <c r="O24" t="n">
         <v>760.3041339439036</v>
-      </c>
-      <c r="O24" t="n">
-        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36592,7 +36594,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K26" t="n">
         <v>722.7356646217162</v>
@@ -36601,7 +36603,7 @@
         <v>939.015199615431</v>
       </c>
       <c r="M26" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
         <v>986.1121802895968</v>
@@ -36610,13 +36612,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P26" t="n">
-        <v>547.4927184184359</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>19.53098502454951</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36677,10 +36679,10 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>845.2513212958648</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>928.4912652212506</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
@@ -36692,7 +36694,7 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>83.23994392538575</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36908,7 +36910,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -36917,7 +36919,7 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>452.1971664929786</v>
+        <v>726.6390748562019</v>
       </c>
       <c r="N30" t="n">
         <v>1100.318127750374</v>
@@ -37069,7 +37071,7 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>554.7947677291143</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L32" t="n">
         <v>939.015199615431</v>
@@ -37084,7 +37086,7 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P32" t="n">
-        <v>715.433615311038</v>
+        <v>547.4927184184359</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
@@ -37154,19 +37156,19 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N33" t="n">
-        <v>928.4912652212506</v>
+        <v>291.4703189309951</v>
       </c>
       <c r="O33" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37309,7 +37311,7 @@
         <v>722.7356646217162</v>
       </c>
       <c r="L35" t="n">
-        <v>659.5493944772218</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M35" t="n">
         <v>1014.430405473796</v>
@@ -37321,10 +37323,10 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>181.2265984013702</v>
       </c>
       <c r="Q35" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37379,34 +37381,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>274.4419083632233</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>404.3842704899966</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>9.506548990083218</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>468.8338150129084</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37540,10 +37542,10 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L38" t="n">
         <v>939.015199615431</v>
@@ -37558,13 +37560,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P38" t="n">
-        <v>715.433615311038</v>
+        <v>547.4927184184349</v>
       </c>
       <c r="Q38" t="n">
-        <v>69.78487510406572</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37625,16 +37627,16 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>726.6390748562019</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>83.23994392538586</v>
       </c>
       <c r="N39" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37783,25 +37785,25 @@
         <v>722.7356646217162</v>
       </c>
       <c r="L41" t="n">
-        <v>906.0531220374943</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M41" t="n">
-        <v>297.6795830640911</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P41" t="n">
-        <v>715.433615311038</v>
+        <v>181.2265984013702</v>
       </c>
       <c r="Q41" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,31 +37855,31 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>507.0757444178507</v>
       </c>
       <c r="M42" t="n">
-        <v>906.0531220374943</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>170.1064956152609</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q42" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38017,22 +38019,22 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>722.7356646217162</v>
+        <v>436.0509951211321</v>
       </c>
       <c r="L44" t="n">
-        <v>906.0531220374943</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M44" t="n">
-        <v>80.33713509547981</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N44" t="n">
-        <v>906.0531220374943</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O44" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
@@ -38090,16 +38092,16 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J45" t="n">
         <v>274.4419083632233</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L45" t="n">
-        <v>845.2513212958648</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -38108,16 +38110,16 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>707.2639729474876</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>396.8624089123078</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_7_35.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_7_35.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1967869.909692144</v>
+        <v>1967173.248487053</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>612367.9462114753</v>
+        <v>612367.9462114756</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6776569.991432588</v>
+        <v>6776569.991432587</v>
       </c>
     </row>
     <row r="11">
@@ -664,10 +664,10 @@
         <v>22.63172268683286</v>
       </c>
       <c r="D2" t="n">
-        <v>257.9489039890595</v>
+        <v>19.05969460684969</v>
       </c>
       <c r="E2" t="n">
-        <v>421.717170453621</v>
+        <v>82.79508309487187</v>
       </c>
       <c r="F2" t="n">
         <v>420.8729399924937</v>
@@ -709,13 +709,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -870,13 +870,13 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T4" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>160.9190842242723</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -885,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>122.9306858025769</v>
       </c>
     </row>
     <row r="5">
@@ -901,22 +901,22 @@
         <v>22.63172268683286</v>
       </c>
       <c r="D5" t="n">
-        <v>419.0596946068497</v>
+        <v>19.05969460684969</v>
       </c>
       <c r="E5" t="n">
-        <v>421.717170453621</v>
+        <v>21.71717045362101</v>
       </c>
       <c r="F5" t="n">
-        <v>20.87293999249374</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G5" t="n">
-        <v>336.1847825754779</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H5" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,25 +946,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T5" t="n">
         <v>218.7163152458132</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X5" t="n">
-        <v>7.602798843930202</v>
+        <v>252.311284131905</v>
       </c>
       <c r="Y5" t="n">
-        <v>401.2838973446586</v>
+        <v>1.283897344658556</v>
       </c>
     </row>
     <row r="6">
@@ -1053,28 +1053,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C7" t="n">
-        <v>158.18667023756</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F7" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G7" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>98.77088257712678</v>
+        <v>19.43015020374501</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S7" t="n">
         <v>168.4336970060565</v>
@@ -1110,7 +1110,7 @@
         <v>240.905954296359</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V7" t="n">
         <v>278.8943527180514</v>
@@ -1119,10 +1119,10 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X7" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1135,25 +1135,25 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C8" t="n">
-        <v>422.6317226868329</v>
+        <v>22.63172268683286</v>
       </c>
       <c r="D8" t="n">
-        <v>419.0596946068497</v>
+        <v>19.05969460684969</v>
       </c>
       <c r="E8" t="n">
-        <v>71.21229122917212</v>
+        <v>21.71717045362101</v>
       </c>
       <c r="F8" t="n">
         <v>20.87293999249374</v>
       </c>
       <c r="G8" t="n">
-        <v>0.2956717864458369</v>
+        <v>237.4315932770774</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,13 +1183,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1290,22 +1290,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C10" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F10" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G10" t="n">
-        <v>152.528232756397</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H10" t="n">
         <v>142.3583058069271</v>
@@ -1341,16 +1341,16 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>168.4336970060565</v>
+        <v>-9.003997547551989e-13</v>
       </c>
       <c r="T10" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>278.8943527180514</v>
+        <v>161.673798810038</v>
       </c>
       <c r="W10" t="n">
         <v>272.1038797892121</v>
@@ -1435,7 +1435,7 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X11" t="n">
-        <v>407.6027988439302</v>
+        <v>407.6027988439306</v>
       </c>
       <c r="Y11" t="n">
         <v>401.2838973446586</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C13" t="n">
         <v>170.2528374898731</v>
@@ -1539,13 +1539,13 @@
         <v>164.546123788675</v>
       </c>
       <c r="F13" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>89.66828639967859</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1581,7 +1581,7 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T13" t="n">
-        <v>240.905954296359</v>
+        <v>110.6098417289057</v>
       </c>
       <c r="U13" t="n">
         <v>277.3826040146988</v>
@@ -1596,7 +1596,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="14">
@@ -1618,7 +1618,7 @@
         <v>421.717170453621</v>
       </c>
       <c r="F14" t="n">
-        <v>420.8729399924947</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G14" t="n">
         <v>400.2956717864458</v>
@@ -1764,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>116.2748171257525</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G16" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>89.43062507611654</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>168.4336970060565</v>
@@ -1821,7 +1821,7 @@
         <v>240.905954296359</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V16" t="n">
         <v>278.8943527180514</v>
@@ -1858,7 +1858,7 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G17" t="n">
-        <v>400.2956717864467</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H17" t="n">
         <v>294.8896947407055</v>
@@ -2250,7 +2250,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>170.1431564831852</v>
+        <v>98.15366458399268</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2289,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>96.44420510686429</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T22" t="n">
         <v>240.905954296359</v>
@@ -2487,7 +2487,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>98.15366458399268</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2529,7 +2529,7 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T25" t="n">
-        <v>240.905954296359</v>
+        <v>168.9164623971668</v>
       </c>
       <c r="U25" t="n">
         <v>277.3826040146988</v>
@@ -2718,7 +2718,7 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D28" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>164.546123788675</v>
@@ -2730,10 +2730,10 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H28" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2763,16 +2763,16 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>44.68628532417755</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>161.6737988100371</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W28" t="n">
         <v>272.1038797892121</v>
@@ -2949,25 +2949,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D31" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>156.5164733647681</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3000,7 +3000,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T31" t="n">
         <v>240.905954296359</v>
@@ -3198,16 +3198,16 @@
         <v>164.546123788675</v>
       </c>
       <c r="F34" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>98.77088257712678</v>
+        <v>50.81828836887217</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,25 +3234,25 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V34" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X34" t="n">
-        <v>180.0196592840957</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y34" t="n">
         <v>224.0793406271554</v>
@@ -3423,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D37" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>98.15366458399269</v>
       </c>
       <c r="G37" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3474,7 +3474,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>117.2305314060866</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T37" t="n">
         <v>240.905954296359</v>
@@ -3492,7 +3492,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="38">
@@ -3520,7 +3520,7 @@
         <v>400.2956717864458</v>
       </c>
       <c r="H38" t="n">
-        <v>294.8896947407063</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I38" t="n">
         <v>34.5479025439635</v>
@@ -3666,13 +3666,13 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D40" t="n">
-        <v>51.58543740429418</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>98.15366458399269</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>168.4336970060565</v>
@@ -3739,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>415.6498806486155</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C41" t="n">
         <v>422.6317226868329</v>
@@ -3760,7 +3760,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I41" t="n">
-        <v>34.5479025439635</v>
+        <v>34.54790254396345</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S43" t="n">
-        <v>96.44420510686429</v>
+        <v>49.87597792716577</v>
       </c>
       <c r="T43" t="n">
         <v>240.905954296359</v>
@@ -3985,16 +3985,16 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E44" t="n">
-        <v>421.7171704536211</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F44" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G44" t="n">
-        <v>400.295671786447</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H44" t="n">
-        <v>294.8896947407056</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I44" t="n">
         <v>34.5479025439635</v>
@@ -4033,16 +4033,16 @@
         <v>218.7163152458132</v>
       </c>
       <c r="U44" t="n">
-        <v>255.7713603095519</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V44" t="n">
-        <v>353.9145207250131</v>
+        <v>353.9145207250128</v>
       </c>
       <c r="W44" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X44" t="n">
-        <v>407.6027988439303</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y44" t="n">
         <v>401.2838973446586</v>
@@ -4137,10 +4137,10 @@
         <v>188.264309024945</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>98.26334559068066</v>
       </c>
       <c r="D46" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4152,10 +4152,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>89.41990167770008</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T46" t="n">
         <v>240.905954296359</v>
@@ -4197,7 +4197,7 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X46" t="n">
         <v>240.1382575886529</v>
@@ -4306,13 +4306,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1910.322343568199</v>
+        <v>1326.674569082381</v>
       </c>
       <c r="C2" t="n">
-        <v>1887.462017621903</v>
+        <v>1303.814243136085</v>
       </c>
       <c r="D2" t="n">
-        <v>1626.907569148105</v>
+        <v>1284.56202636149</v>
       </c>
       <c r="E2" t="n">
         <v>1200.930629295963</v>
@@ -4324,58 +4324,58 @@
         <v>371.4673850748115</v>
       </c>
       <c r="H2" t="n">
-        <v>73.59900654884638</v>
+        <v>73.5990065488463</v>
       </c>
       <c r="I2" t="n">
-        <v>38.70213529231758</v>
+        <v>38.70213529231751</v>
       </c>
       <c r="J2" t="n">
-        <v>38.70213529231758</v>
+        <v>38.70213529231751</v>
       </c>
       <c r="K2" t="n">
-        <v>38.70213529231758</v>
+        <v>38.70213529231751</v>
       </c>
       <c r="L2" t="n">
-        <v>38.70213529231758</v>
+        <v>403.5871017449317</v>
       </c>
       <c r="M2" t="n">
-        <v>403.5871017449333</v>
+        <v>403.5871017449317</v>
       </c>
       <c r="N2" t="n">
-        <v>403.5871017449333</v>
+        <v>403.5871017449317</v>
       </c>
       <c r="O2" t="n">
-        <v>882.5260259873634</v>
+        <v>882.526025987361</v>
       </c>
       <c r="P2" t="n">
-        <v>1361.464950229793</v>
+        <v>1361.46495022979</v>
       </c>
       <c r="Q2" t="n">
-        <v>1817.550429733976</v>
+        <v>1817.550429733973</v>
       </c>
       <c r="R2" t="n">
-        <v>1935.106764615879</v>
+        <v>1935.106764615876</v>
       </c>
       <c r="S2" t="n">
-        <v>1935.106764615879</v>
+        <v>1830.739470489016</v>
       </c>
       <c r="T2" t="n">
-        <v>1935.106764615879</v>
+        <v>1609.813899533649</v>
       </c>
       <c r="U2" t="n">
-        <v>1935.106764615879</v>
+        <v>1351.458990130062</v>
       </c>
       <c r="V2" t="n">
-        <v>1935.106764615879</v>
+        <v>1351.458990130062</v>
       </c>
       <c r="W2" t="n">
-        <v>1935.106764615879</v>
+        <v>1351.458990130062</v>
       </c>
       <c r="X2" t="n">
-        <v>1927.42716982403</v>
+        <v>1343.779395338213</v>
       </c>
       <c r="Y2" t="n">
-        <v>1926.130303819325</v>
+        <v>1342.482529333507</v>
       </c>
     </row>
     <row r="3">
@@ -4397,34 +4397,34 @@
         <v>279.7778306294998</v>
       </c>
       <c r="F3" t="n">
-        <v>186.132000312404</v>
+        <v>186.1320003124039</v>
       </c>
       <c r="G3" t="n">
-        <v>92.07822853000799</v>
+        <v>92.07822853000792</v>
       </c>
       <c r="H3" t="n">
-        <v>38.70213529231758</v>
+        <v>38.70213529231751</v>
       </c>
       <c r="I3" t="n">
-        <v>38.70213529231758</v>
+        <v>46.14877825422936</v>
       </c>
       <c r="J3" t="n">
-        <v>310.3996245719086</v>
+        <v>317.8462675338204</v>
       </c>
       <c r="K3" t="n">
-        <v>310.3996245719086</v>
+        <v>317.8462675338204</v>
       </c>
       <c r="L3" t="n">
-        <v>789.3385488143388</v>
+        <v>317.8462675338204</v>
       </c>
       <c r="M3" t="n">
-        <v>1268.277473056769</v>
+        <v>328.5536830608364</v>
       </c>
       <c r="N3" t="n">
-        <v>1268.277473056769</v>
+        <v>807.4926073032657</v>
       </c>
       <c r="O3" t="n">
-        <v>1747.216397299199</v>
+        <v>1286.431531545695</v>
       </c>
       <c r="P3" t="n">
         <v>1765.370455788124</v>
@@ -4476,7 +4476,7 @@
         <v>620.3857159750946</v>
       </c>
       <c r="F4" t="n">
-        <v>448.5239417496551</v>
+        <v>448.523941749655</v>
       </c>
       <c r="G4" t="n">
         <v>282.2669720438872</v>
@@ -4485,52 +4485,52 @@
         <v>138.4707035520416</v>
       </c>
       <c r="I4" t="n">
-        <v>38.70213529231758</v>
+        <v>38.70213529231751</v>
       </c>
       <c r="J4" t="n">
-        <v>96.19346351647559</v>
+        <v>38.70213529231751</v>
       </c>
       <c r="K4" t="n">
-        <v>322.7210647223128</v>
+        <v>265.2297364981547</v>
       </c>
       <c r="L4" t="n">
-        <v>677.4103860167336</v>
+        <v>619.9190577925755</v>
       </c>
       <c r="M4" t="n">
-        <v>1068.596180986984</v>
+        <v>1011.104852762826</v>
       </c>
       <c r="N4" t="n">
-        <v>1162.079293773453</v>
+        <v>1388.596363638862</v>
       </c>
       <c r="O4" t="n">
-        <v>1517.507422453216</v>
+        <v>1744.024492318625</v>
       </c>
       <c r="P4" t="n">
-        <v>1808.106634375117</v>
+        <v>1935.106764615876</v>
       </c>
       <c r="Q4" t="n">
-        <v>1935.106764615879</v>
+        <v>1935.106764615876</v>
       </c>
       <c r="R4" t="n">
-        <v>1888.068151303052</v>
+        <v>1888.068151303049</v>
       </c>
       <c r="S4" t="n">
-        <v>1717.933103822187</v>
+        <v>1717.933103822184</v>
       </c>
       <c r="T4" t="n">
-        <v>1474.593756048087</v>
+        <v>1717.933103822184</v>
       </c>
       <c r="U4" t="n">
-        <v>1312.04922652862</v>
+        <v>1717.933103822184</v>
       </c>
       <c r="V4" t="n">
-        <v>1312.04922652862</v>
+        <v>1436.221636430213</v>
       </c>
       <c r="W4" t="n">
-        <v>1312.04922652862</v>
+        <v>1436.221636430213</v>
       </c>
       <c r="X4" t="n">
-        <v>1312.04922652862</v>
+        <v>1436.221636430213</v>
       </c>
       <c r="Y4" t="n">
         <v>1312.04922652862</v>
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1575.160856418925</v>
+        <v>972.9074190595574</v>
       </c>
       <c r="C5" t="n">
-        <v>1552.300530472629</v>
+        <v>950.0470931132616</v>
       </c>
       <c r="D5" t="n">
-        <v>1129.00790965763</v>
+        <v>930.7948763386659</v>
       </c>
       <c r="E5" t="n">
-        <v>703.0309698054872</v>
+        <v>908.8583405269275</v>
       </c>
       <c r="F5" t="n">
-        <v>681.9471920352914</v>
+        <v>483.7341587163277</v>
       </c>
       <c r="G5" t="n">
-        <v>342.3666035752127</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="H5" t="n">
-        <v>44.49822504924753</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="I5" t="n">
         <v>44.49822504924753</v>
@@ -4570,7 +4570,7 @@
         <v>407.101683866143</v>
       </c>
       <c r="K5" t="n">
-        <v>407.101683866143</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="L5" t="n">
         <v>957.7672188505812</v>
@@ -4582,7 +4582,7 @@
         <v>957.7672188505812</v>
       </c>
       <c r="O5" t="n">
-        <v>1508.432753835019</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="P5" t="n">
         <v>1651.269438076291</v>
@@ -4594,25 +4594,25 @@
         <v>2224.911252462377</v>
       </c>
       <c r="S5" t="n">
-        <v>2224.911252462377</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="T5" t="n">
-        <v>2003.98568150701</v>
+        <v>1899.61838738015</v>
       </c>
       <c r="U5" t="n">
-        <v>2003.98568150701</v>
+        <v>1641.263477976562</v>
       </c>
       <c r="V5" t="n">
-        <v>2003.98568150701</v>
+        <v>1641.263477976562</v>
       </c>
       <c r="W5" t="n">
-        <v>2003.98568150701</v>
+        <v>1244.872128276909</v>
       </c>
       <c r="X5" t="n">
-        <v>1996.306086715161</v>
+        <v>990.012245315389</v>
       </c>
       <c r="Y5" t="n">
-        <v>1590.968816670051</v>
+        <v>988.7153793106834</v>
       </c>
     </row>
     <row r="6">
@@ -4646,25 +4646,25 @@
         <v>51.94486801115937</v>
       </c>
       <c r="J6" t="n">
-        <v>323.6423572907505</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="K6" t="n">
-        <v>874.3078922751886</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="L6" t="n">
-        <v>874.3078922751886</v>
+        <v>119.1699405917395</v>
       </c>
       <c r="M6" t="n">
-        <v>874.3078922751886</v>
+        <v>119.1699405917395</v>
       </c>
       <c r="N6" t="n">
-        <v>1307.021068682275</v>
+        <v>669.8354755761777</v>
       </c>
       <c r="O6" t="n">
-        <v>1307.021068682275</v>
+        <v>1220.501010560616</v>
       </c>
       <c r="P6" t="n">
-        <v>1307.021068682275</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="Q6" t="n">
         <v>1771.166545545054</v>
@@ -4701,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>785.9663211234994</v>
+        <v>737.4839554633641</v>
       </c>
       <c r="C7" t="n">
-        <v>626.1818057320246</v>
+        <v>565.51139234228</v>
       </c>
       <c r="D7" t="n">
-        <v>626.1818057320246</v>
+        <v>402.1946194690507</v>
       </c>
       <c r="E7" t="n">
-        <v>626.1818057320246</v>
+        <v>235.9864136219043</v>
       </c>
       <c r="F7" t="n">
-        <v>454.3200315065851</v>
+        <v>64.12463939646472</v>
       </c>
       <c r="G7" t="n">
-        <v>288.0630618008172</v>
+        <v>64.12463939646472</v>
       </c>
       <c r="H7" t="n">
-        <v>144.2667933089716</v>
+        <v>64.12463939646472</v>
       </c>
       <c r="I7" t="n">
         <v>44.49822504924753</v>
@@ -4749,28 +4749,28 @@
         <v>2224.911252462376</v>
       </c>
       <c r="R7" t="n">
-        <v>2224.911252462376</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="S7" t="n">
-        <v>2054.776204981511</v>
+        <v>2007.737591668684</v>
       </c>
       <c r="T7" t="n">
-        <v>1811.43685720741</v>
+        <v>1764.398243894584</v>
       </c>
       <c r="U7" t="n">
-        <v>1811.43685720741</v>
+        <v>1484.213795394888</v>
       </c>
       <c r="V7" t="n">
-        <v>1529.725389815439</v>
+        <v>1202.502328002917</v>
       </c>
       <c r="W7" t="n">
-        <v>1254.872985987952</v>
+        <v>927.6499241754298</v>
       </c>
       <c r="X7" t="n">
-        <v>1012.309089433757</v>
+        <v>927.6499241754298</v>
       </c>
       <c r="Y7" t="n">
-        <v>785.9663211234994</v>
+        <v>927.6499241754298</v>
       </c>
     </row>
     <row r="8">
@@ -4780,49 +4780,49 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>988.0056192934842</v>
+        <v>404.3578448076699</v>
       </c>
       <c r="C8" t="n">
-        <v>561.1048893067843</v>
+        <v>381.4975188613741</v>
       </c>
       <c r="D8" t="n">
-        <v>137.8122684917846</v>
+        <v>362.2453020867785</v>
       </c>
       <c r="E8" t="n">
-        <v>65.88066118959054</v>
+        <v>340.3087662750401</v>
       </c>
       <c r="F8" t="n">
-        <v>44.79688341939484</v>
+        <v>319.2249885048444</v>
       </c>
       <c r="G8" t="n">
-        <v>44.49822504924753</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="H8" t="n">
-        <v>44.49822504924753</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="I8" t="n">
         <v>44.49822504924753</v>
       </c>
       <c r="J8" t="n">
-        <v>44.49822504924753</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K8" t="n">
-        <v>595.1637600336857</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="L8" t="n">
-        <v>1145.829295018124</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="M8" t="n">
-        <v>1696.494830002562</v>
+        <v>1768.825772958194</v>
       </c>
       <c r="N8" t="n">
-        <v>1696.494830002562</v>
+        <v>1768.825772958194</v>
       </c>
       <c r="O8" t="n">
-        <v>1696.494830002562</v>
+        <v>1768.825772958194</v>
       </c>
       <c r="P8" t="n">
-        <v>2224.911252462377</v>
+        <v>1768.825772958194</v>
       </c>
       <c r="Q8" t="n">
         <v>2224.911252462377</v>
@@ -4831,25 +4831,25 @@
         <v>2224.911252462377</v>
       </c>
       <c r="S8" t="n">
-        <v>2224.911252462377</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="T8" t="n">
-        <v>2224.911252462377</v>
+        <v>1899.61838738015</v>
       </c>
       <c r="U8" t="n">
-        <v>2224.911252462377</v>
+        <v>1641.263477976562</v>
       </c>
       <c r="V8" t="n">
-        <v>2224.911252462377</v>
+        <v>1641.263477976562</v>
       </c>
       <c r="W8" t="n">
-        <v>2224.911252462377</v>
+        <v>1641.263477976562</v>
       </c>
       <c r="X8" t="n">
-        <v>1813.191253630124</v>
+        <v>1229.54347914431</v>
       </c>
       <c r="Y8" t="n">
-        <v>1407.853983585014</v>
+        <v>824.2062090992</v>
       </c>
     </row>
     <row r="9">
@@ -4880,28 +4880,28 @@
         <v>44.49822504924753</v>
       </c>
       <c r="I9" t="n">
-        <v>44.49822504924753</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J9" t="n">
-        <v>316.1957143288386</v>
+        <v>205.6899987133984</v>
       </c>
       <c r="K9" t="n">
-        <v>669.8354755761777</v>
+        <v>205.6899987133984</v>
       </c>
       <c r="L9" t="n">
-        <v>1220.501010560616</v>
+        <v>756.3555336978366</v>
       </c>
       <c r="M9" t="n">
-        <v>1771.166545545054</v>
+        <v>756.3555336978366</v>
       </c>
       <c r="N9" t="n">
-        <v>1771.166545545054</v>
+        <v>756.3555336978366</v>
       </c>
       <c r="O9" t="n">
-        <v>1771.166545545054</v>
+        <v>756.3555336978366</v>
       </c>
       <c r="P9" t="n">
-        <v>1771.166545545054</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="Q9" t="n">
         <v>1771.166545545054</v>
@@ -4938,19 +4938,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>785.9663211234994</v>
+        <v>1127.679347573484</v>
       </c>
       <c r="C10" t="n">
-        <v>613.9937580024153</v>
+        <v>955.7067844524004</v>
       </c>
       <c r="D10" t="n">
-        <v>613.9937580024153</v>
+        <v>792.3900115791711</v>
       </c>
       <c r="E10" t="n">
-        <v>613.9937580024153</v>
+        <v>626.1818057320246</v>
       </c>
       <c r="F10" t="n">
-        <v>442.1319837769757</v>
+        <v>454.3200315065851</v>
       </c>
       <c r="G10" t="n">
         <v>288.0630618008172</v>
@@ -4989,25 +4989,25 @@
         <v>2224.911252462376</v>
       </c>
       <c r="S10" t="n">
-        <v>2054.776204981511</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T10" t="n">
-        <v>1811.43685720741</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="U10" t="n">
-        <v>1811.43685720741</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="V10" t="n">
-        <v>1529.725389815439</v>
+        <v>2061.60438497749</v>
       </c>
       <c r="W10" t="n">
-        <v>1254.872985987952</v>
+        <v>1786.751981150003</v>
       </c>
       <c r="X10" t="n">
-        <v>1012.309089433757</v>
+        <v>1544.188084595808</v>
       </c>
       <c r="Y10" t="n">
-        <v>785.9663211234994</v>
+        <v>1317.84531628555</v>
       </c>
     </row>
     <row r="11">
@@ -5029,10 +5029,10 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F11" t="n">
-        <v>839.4070255988736</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G11" t="n">
-        <v>435.0679631883222</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H11" t="n">
         <v>137.1995846623573</v>
@@ -5041,28 +5041,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J11" t="n">
-        <v>102.3027134058285</v>
+        <v>464.906172222724</v>
       </c>
       <c r="K11" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L11" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M11" t="n">
-        <v>2751.722170419663</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N11" t="n">
-        <v>3727.973228906364</v>
+        <v>2988.069926596601</v>
       </c>
       <c r="O11" t="n">
-        <v>4573.117879057176</v>
+        <v>3833.214576747413</v>
       </c>
       <c r="P11" t="n">
-        <v>5115.135670291426</v>
+        <v>4541.493855905341</v>
       </c>
       <c r="Q11" t="n">
-        <v>5115.135670291426</v>
+        <v>4997.579335409524</v>
       </c>
       <c r="R11" t="n">
         <v>5115.135670291426</v>
@@ -5071,7 +5071,7 @@
         <v>5010.768376164567</v>
       </c>
       <c r="T11" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U11" t="n">
         <v>4531.487895805612</v>
@@ -5083,7 +5083,7 @@
         <v>3777.607131232208</v>
       </c>
       <c r="X11" t="n">
-        <v>3365.887132399956</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y11" t="n">
         <v>2960.549862354846</v>
@@ -5117,25 +5117,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I12" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J12" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K12" t="n">
-        <v>692.7876399741681</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="L12" t="n">
-        <v>1194.79262694784</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="M12" t="n">
-        <v>1194.79262694784</v>
+        <v>1437.433383623377</v>
       </c>
       <c r="N12" t="n">
-        <v>1194.79262694784</v>
+        <v>1437.433383623377</v>
       </c>
       <c r="O12" t="n">
-        <v>1194.79262694784</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P12" t="n">
         <v>1910.990343986338</v>
@@ -5175,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1032.493025844838</v>
+        <v>747.5965237391339</v>
       </c>
       <c r="C13" t="n">
-        <v>860.5204627237538</v>
+        <v>575.6239606180499</v>
       </c>
       <c r="D13" t="n">
-        <v>697.2036898505245</v>
+        <v>412.3071877448206</v>
       </c>
       <c r="E13" t="n">
-        <v>530.995484003378</v>
+        <v>246.0989818976742</v>
       </c>
       <c r="F13" t="n">
-        <v>359.1337097779384</v>
+        <v>246.0989818976742</v>
       </c>
       <c r="G13" t="n">
-        <v>192.8767400721705</v>
+        <v>246.0989818976742</v>
       </c>
       <c r="H13" t="n">
         <v>102.3027134058285</v>
@@ -5229,22 +5229,22 @@
         <v>2112.580693338092</v>
       </c>
       <c r="T13" t="n">
-        <v>1869.241345563992</v>
+        <v>2000.853580480611</v>
       </c>
       <c r="U13" t="n">
-        <v>1589.056897064296</v>
+        <v>1720.669131980916</v>
       </c>
       <c r="V13" t="n">
-        <v>1307.345429672325</v>
+        <v>1438.957664588944</v>
       </c>
       <c r="W13" t="n">
-        <v>1032.493025844838</v>
+        <v>1164.105260761457</v>
       </c>
       <c r="X13" t="n">
-        <v>1032.493025844838</v>
+        <v>1164.105260761457</v>
       </c>
       <c r="Y13" t="n">
-        <v>1032.493025844838</v>
+        <v>937.7624924511995</v>
       </c>
     </row>
     <row r="14">
@@ -5254,22 +5254,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2540.701498063317</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C14" t="n">
-        <v>2113.800768076617</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D14" t="n">
-        <v>1690.508147261617</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E14" t="n">
-        <v>1264.531207409475</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F14" t="n">
-        <v>839.4070255988738</v>
+        <v>839.407025598874</v>
       </c>
       <c r="G14" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883227</v>
       </c>
       <c r="H14" t="n">
         <v>137.1995846623573</v>
@@ -5278,37 +5278,37 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J14" t="n">
-        <v>102.3027134058285</v>
+        <v>464.906172222724</v>
       </c>
       <c r="K14" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L14" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M14" t="n">
-        <v>2751.722170419663</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N14" t="n">
-        <v>3727.973228906364</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O14" t="n">
-        <v>4573.117879057176</v>
+        <v>4935.721337874071</v>
       </c>
       <c r="P14" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409524</v>
       </c>
       <c r="Q14" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409524</v>
       </c>
       <c r="R14" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S14" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T14" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U14" t="n">
         <v>4531.487895805612</v>
@@ -5323,7 +5323,7 @@
         <v>3365.887132399956</v>
       </c>
       <c r="Y14" t="n">
-        <v>2960.549862354847</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="15">
@@ -5357,28 +5357,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J15" t="n">
-        <v>102.3027134058285</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="K15" t="n">
-        <v>692.7876399741681</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="L15" t="n">
-        <v>692.7876399741681</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="M15" t="n">
-        <v>692.7876399741681</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="N15" t="n">
-        <v>692.7876399741681</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="O15" t="n">
-        <v>1194.79262694784</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="P15" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="Q15" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R15" t="n">
         <v>1910.990343986338</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>796.7321961672566</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C16" t="n">
-        <v>796.7321961672566</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D16" t="n">
-        <v>796.7321961672566</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E16" t="n">
-        <v>630.5239903201101</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F16" t="n">
-        <v>458.6622160946705</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G16" t="n">
-        <v>292.4052463889026</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H16" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I16" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J16" t="n">
-        <v>159.7940416299866</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K16" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L16" t="n">
         <v>741.0109641302445</v>
       </c>
       <c r="M16" t="n">
-        <v>1132.196759100498</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N16" t="n">
-        <v>1509.688269976534</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O16" t="n">
-        <v>1865.116398656297</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P16" t="n">
-        <v>2155.715610578198</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q16" t="n">
-        <v>2282.71574081896</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R16" t="n">
-        <v>2235.677127506133</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S16" t="n">
-        <v>2065.542080025268</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T16" t="n">
-        <v>1822.202732251168</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U16" t="n">
-        <v>1822.202732251168</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V16" t="n">
-        <v>1540.491264859196</v>
+        <v>1307.345429672325</v>
       </c>
       <c r="W16" t="n">
-        <v>1265.638861031709</v>
+        <v>1032.493025844838</v>
       </c>
       <c r="X16" t="n">
-        <v>1023.074964477515</v>
+        <v>789.9291292906429</v>
       </c>
       <c r="Y16" t="n">
-        <v>796.7321961672566</v>
+        <v>563.5863609803849</v>
       </c>
     </row>
     <row r="17">
@@ -5491,19 +5491,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2540.701498063317</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C17" t="n">
-        <v>2113.800768076617</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D17" t="n">
-        <v>1690.508147261617</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E17" t="n">
-        <v>1264.531207409475</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F17" t="n">
-        <v>839.4070255988747</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G17" t="n">
         <v>435.0679631883225</v>
@@ -5515,52 +5515,52 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J17" t="n">
-        <v>464.9061722227241</v>
+        <v>464.906172222724</v>
       </c>
       <c r="K17" t="n">
         <v>1180.414480198223</v>
       </c>
       <c r="L17" t="n">
-        <v>2110.0395278175</v>
+        <v>1833.368380730672</v>
       </c>
       <c r="M17" t="n">
-        <v>3114.325629236558</v>
+        <v>2837.65448214973</v>
       </c>
       <c r="N17" t="n">
-        <v>4090.576687723259</v>
+        <v>3813.905540636431</v>
       </c>
       <c r="O17" t="n">
-        <v>4090.576687723259</v>
+        <v>4659.050190787243</v>
       </c>
       <c r="P17" t="n">
-        <v>4659.050190787244</v>
+        <v>4659.050190787243</v>
       </c>
       <c r="Q17" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="R17" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S17" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T17" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U17" t="n">
         <v>4531.487895805612</v>
       </c>
       <c r="V17" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W17" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X17" t="n">
-        <v>3365.887132399956</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y17" t="n">
-        <v>2960.549862354847</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="18">
@@ -5591,25 +5591,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I18" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J18" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K18" t="n">
-        <v>692.7876399741681</v>
+        <v>821.6753975134684</v>
       </c>
       <c r="L18" t="n">
-        <v>692.7876399741681</v>
+        <v>821.6753975134684</v>
       </c>
       <c r="M18" t="n">
-        <v>692.7876399741681</v>
+        <v>821.6753975134684</v>
       </c>
       <c r="N18" t="n">
-        <v>692.7876399741681</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O18" t="n">
-        <v>1194.79262694784</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P18" t="n">
         <v>1910.990343986338</v>
@@ -5673,10 +5673,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J19" t="n">
-        <v>159.7940416299866</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K19" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L19" t="n">
         <v>741.0109641302445</v>
@@ -5728,40 +5728,40 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2540.701498063315</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C20" t="n">
-        <v>2113.800768076615</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D20" t="n">
-        <v>1690.508147261616</v>
+        <v>1690.508147261617</v>
       </c>
       <c r="E20" t="n">
         <v>1264.531207409474</v>
       </c>
       <c r="F20" t="n">
-        <v>839.4070255988736</v>
+        <v>839.4070255988745</v>
       </c>
       <c r="G20" t="n">
-        <v>435.0679631883222</v>
+        <v>435.0679631883231</v>
       </c>
       <c r="H20" t="n">
-        <v>137.1995846623568</v>
+        <v>137.1995846623579</v>
       </c>
       <c r="I20" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J20" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K20" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L20" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M20" t="n">
-        <v>2011.818868109901</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N20" t="n">
         <v>2988.069926596602</v>
@@ -5788,13 +5788,13 @@
         <v>4531.487895805612</v>
       </c>
       <c r="V20" t="n">
-        <v>4173.998480931861</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W20" t="n">
-        <v>3777.607131232208</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X20" t="n">
-        <v>3365.887132399955</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y20" t="n">
         <v>2960.549862354846</v>
@@ -5831,22 +5831,22 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J21" t="n">
-        <v>102.3027134058285</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="K21" t="n">
-        <v>692.7876399741681</v>
+        <v>730.647150085061</v>
       </c>
       <c r="L21" t="n">
-        <v>692.7876399741681</v>
+        <v>730.647150085061</v>
       </c>
       <c r="M21" t="n">
-        <v>692.7876399741681</v>
+        <v>730.647150085061</v>
       </c>
       <c r="N21" t="n">
-        <v>692.7876399741681</v>
+        <v>730.647150085061</v>
       </c>
       <c r="O21" t="n">
-        <v>1446.844867123559</v>
+        <v>730.647150085061</v>
       </c>
       <c r="P21" t="n">
         <v>1446.844867123559</v>
@@ -5886,16 +5886,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>446.1370507523521</v>
+        <v>373.4203922683193</v>
       </c>
       <c r="C22" t="n">
-        <v>274.1644876312681</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="D22" t="n">
-        <v>274.1644876312681</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="E22" t="n">
-        <v>274.1644876312681</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="F22" t="n">
         <v>102.3027134058285</v>
@@ -5937,25 +5937,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S22" t="n">
-        <v>2185.297351822124</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T22" t="n">
-        <v>1941.958004048024</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U22" t="n">
-        <v>1661.773555548329</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V22" t="n">
-        <v>1380.062088156358</v>
+        <v>1307.345429672325</v>
       </c>
       <c r="W22" t="n">
-        <v>1105.20968432887</v>
+        <v>1032.493025844838</v>
       </c>
       <c r="X22" t="n">
-        <v>862.6457877746757</v>
+        <v>789.9291292906429</v>
       </c>
       <c r="Y22" t="n">
-        <v>636.3030194644177</v>
+        <v>563.5863609803849</v>
       </c>
     </row>
     <row r="23">
@@ -5998,16 +5998,16 @@
         <v>2110.0395278175</v>
       </c>
       <c r="M23" t="n">
-        <v>3114.325629236558</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N23" t="n">
-        <v>4090.576687723259</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O23" t="n">
-        <v>4935.721337874071</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P23" t="n">
-        <v>4997.579335409525</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q23" t="n">
         <v>4997.579335409525</v>
@@ -6065,31 +6065,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I24" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J24" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K24" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L24" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M24" t="n">
-        <v>1158.289251381874</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N24" t="n">
-        <v>1158.289251381874</v>
+        <v>971.931772215671</v>
       </c>
       <c r="O24" t="n">
-        <v>1910.990343986338</v>
+        <v>971.931772215671</v>
       </c>
       <c r="P24" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q24" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R24" t="n">
         <v>1910.990343986338</v>
@@ -6123,16 +6123,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>373.4203922683193</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C25" t="n">
-        <v>201.4478291472353</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D25" t="n">
-        <v>201.4478291472353</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E25" t="n">
-        <v>201.4478291472353</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F25" t="n">
         <v>102.3027134058285</v>
@@ -6177,22 +6177,22 @@
         <v>2112.580693338092</v>
       </c>
       <c r="T25" t="n">
-        <v>1869.241345563992</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U25" t="n">
-        <v>1589.056897064296</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V25" t="n">
-        <v>1307.345429672325</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W25" t="n">
-        <v>1032.493025844838</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X25" t="n">
-        <v>789.9291292906429</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y25" t="n">
-        <v>563.5863609803849</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="26">
@@ -6247,7 +6247,7 @@
         <v>4639.71451561294</v>
       </c>
       <c r="Q26" t="n">
-        <v>5095.799995117123</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R26" t="n">
         <v>5115.135670291427</v>
@@ -6302,31 +6302,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I27" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J27" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K27" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L27" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M27" t="n">
-        <v>1021.509065974867</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N27" t="n">
-        <v>1021.509065974867</v>
+        <v>971.931772215671</v>
       </c>
       <c r="O27" t="n">
-        <v>1910.990343986338</v>
+        <v>971.931772215671</v>
       </c>
       <c r="P27" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q27" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R27" t="n">
         <v>1910.990343986338</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1185.483835930065</v>
+        <v>778.6022263052665</v>
       </c>
       <c r="C28" t="n">
-        <v>1013.511272808982</v>
+        <v>606.6296631841825</v>
       </c>
       <c r="D28" t="n">
-        <v>850.1944999357522</v>
+        <v>606.6296631841825</v>
       </c>
       <c r="E28" t="n">
-        <v>683.9862940886057</v>
+        <v>440.421457337036</v>
       </c>
       <c r="F28" t="n">
-        <v>512.1245198631661</v>
+        <v>268.5596831115964</v>
       </c>
       <c r="G28" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H28" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I28" t="n">
         <v>102.3027134058285</v>
@@ -6411,25 +6411,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S28" t="n">
-        <v>2282.715740818957</v>
+        <v>2237.578078875343</v>
       </c>
       <c r="T28" t="n">
-        <v>2282.715740818957</v>
+        <v>1994.238731101243</v>
       </c>
       <c r="U28" t="n">
-        <v>2282.715740818957</v>
+        <v>1994.238731101243</v>
       </c>
       <c r="V28" t="n">
-        <v>2119.408873334071</v>
+        <v>1712.527263709272</v>
       </c>
       <c r="W28" t="n">
-        <v>1844.556469506584</v>
+        <v>1437.674859881785</v>
       </c>
       <c r="X28" t="n">
-        <v>1601.992572952389</v>
+        <v>1195.11096332759</v>
       </c>
       <c r="Y28" t="n">
-        <v>1375.649804642131</v>
+        <v>968.7681950173321</v>
       </c>
     </row>
     <row r="29">
@@ -6463,28 +6463,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J29" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K29" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L29" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M29" t="n">
-        <v>2751.722170419663</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N29" t="n">
-        <v>3727.973228906364</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O29" t="n">
-        <v>4573.117879057176</v>
+        <v>4935.721337874071</v>
       </c>
       <c r="P29" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="Q29" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R29" t="n">
         <v>5115.135670291427</v>
@@ -6539,31 +6539,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I30" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J30" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K30" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L30" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M30" t="n">
-        <v>821.6753975134684</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N30" t="n">
-        <v>1910.990343986338</v>
+        <v>971.931772215671</v>
       </c>
       <c r="O30" t="n">
-        <v>1910.990343986338</v>
+        <v>971.931772215671</v>
       </c>
       <c r="P30" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q30" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R30" t="n">
         <v>1910.990343986338</v>
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>733.72140846125</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C31" t="n">
-        <v>733.72140846125</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D31" t="n">
-        <v>570.4046355880207</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E31" t="n">
-        <v>404.1964297408742</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F31" t="n">
-        <v>246.0989818976742</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G31" t="n">
-        <v>246.0989818976742</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H31" t="n">
         <v>102.3027134058285</v>
@@ -6648,25 +6648,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S31" t="n">
-        <v>2282.715740818957</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T31" t="n">
-        <v>2039.376393044857</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U31" t="n">
-        <v>1759.191944545161</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V31" t="n">
-        <v>1477.48047715319</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W31" t="n">
-        <v>1202.628073325703</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X31" t="n">
-        <v>960.064176771508</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y31" t="n">
-        <v>733.72140846125</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="32">
@@ -6700,28 +6700,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J32" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K32" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L32" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M32" t="n">
-        <v>2751.722170419663</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N32" t="n">
-        <v>3727.973228906364</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O32" t="n">
-        <v>4573.117879057176</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P32" t="n">
-        <v>5115.135670291427</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q32" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R32" t="n">
         <v>5115.135670291427</v>
@@ -6779,25 +6779,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J33" t="n">
-        <v>102.3027134058285</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="K33" t="n">
-        <v>102.3027134058285</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="L33" t="n">
-        <v>102.3027134058285</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="M33" t="n">
-        <v>1158.289251381874</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="N33" t="n">
-        <v>1446.844867123559</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="O33" t="n">
-        <v>1446.844867123559</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="P33" t="n">
-        <v>1446.844867123559</v>
+        <v>1680.682846292257</v>
       </c>
       <c r="Q33" t="n">
         <v>1910.990343986338</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1185.483835930065</v>
+        <v>655.1318596602905</v>
       </c>
       <c r="C34" t="n">
-        <v>1013.511272808982</v>
+        <v>483.1592965392065</v>
       </c>
       <c r="D34" t="n">
-        <v>850.1944999357522</v>
+        <v>319.8425236659772</v>
       </c>
       <c r="E34" t="n">
-        <v>683.9862940886057</v>
+        <v>153.6343178188307</v>
       </c>
       <c r="F34" t="n">
-        <v>512.1245198631661</v>
+        <v>153.6343178188307</v>
       </c>
       <c r="G34" t="n">
-        <v>345.8675501573982</v>
+        <v>153.6343178188307</v>
       </c>
       <c r="H34" t="n">
-        <v>202.0712816655526</v>
+        <v>153.6343178188307</v>
       </c>
       <c r="I34" t="n">
         <v>102.3027134058285</v>
@@ -6882,28 +6882,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R34" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S34" t="n">
-        <v>2065.542080025265</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T34" t="n">
-        <v>2065.542080025265</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U34" t="n">
-        <v>2065.542080025265</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V34" t="n">
-        <v>1783.830612633294</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="W34" t="n">
-        <v>1783.830612633294</v>
+        <v>1314.204493236809</v>
       </c>
       <c r="X34" t="n">
-        <v>1601.992572952389</v>
+        <v>1071.640596682614</v>
       </c>
       <c r="Y34" t="n">
-        <v>1375.649804642131</v>
+        <v>845.2978283723562</v>
       </c>
     </row>
     <row r="35">
@@ -6925,19 +6925,19 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F35" t="n">
-        <v>839.4070255988736</v>
+        <v>839.4070255988739</v>
       </c>
       <c r="G35" t="n">
-        <v>435.0679631883222</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H35" t="n">
-        <v>137.1995846623568</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I35" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J35" t="n">
-        <v>464.9061722227241</v>
+        <v>464.906172222724</v>
       </c>
       <c r="K35" t="n">
         <v>1180.414480198223</v>
@@ -6946,28 +6946,28 @@
         <v>2110.0395278175</v>
       </c>
       <c r="M35" t="n">
-        <v>3114.325629236558</v>
+        <v>2988.069926596601</v>
       </c>
       <c r="N35" t="n">
-        <v>4090.576687723259</v>
+        <v>2988.069926596601</v>
       </c>
       <c r="O35" t="n">
-        <v>4935.721337874071</v>
+        <v>3833.214576747413</v>
       </c>
       <c r="P35" t="n">
-        <v>5115.135670291427</v>
+        <v>4541.493855905341</v>
       </c>
       <c r="Q35" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409524</v>
       </c>
       <c r="R35" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S35" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T35" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U35" t="n">
         <v>4531.487895805612</v>
@@ -7028,16 +7028,16 @@
         <v>964.4851292537592</v>
       </c>
       <c r="N36" t="n">
-        <v>1364.825557038856</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="O36" t="n">
-        <v>1364.825557038856</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="P36" t="n">
-        <v>1364.825557038856</v>
+        <v>1680.682846292257</v>
       </c>
       <c r="Q36" t="n">
-        <v>1828.971033901635</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R36" t="n">
         <v>1910.990343986338</v>
@@ -7071,34 +7071,34 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>841.6494985835419</v>
+        <v>373.4203922683193</v>
       </c>
       <c r="C37" t="n">
-        <v>841.6494985835419</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="D37" t="n">
-        <v>678.3327257103126</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="E37" t="n">
-        <v>512.1245198631661</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="F37" t="n">
-        <v>512.1245198631661</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G37" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H37" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I37" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J37" t="n">
-        <v>159.7940416299866</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K37" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L37" t="n">
         <v>741.0109641302445</v>
@@ -7122,25 +7122,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S37" t="n">
-        <v>2164.301062630991</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T37" t="n">
-        <v>1920.961714856891</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U37" t="n">
-        <v>1640.777266357195</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V37" t="n">
-        <v>1359.065798965224</v>
+        <v>1307.345429672325</v>
       </c>
       <c r="W37" t="n">
-        <v>1084.213395137737</v>
+        <v>1032.493025844838</v>
       </c>
       <c r="X37" t="n">
-        <v>841.6494985835419</v>
+        <v>789.9291292906429</v>
       </c>
       <c r="Y37" t="n">
-        <v>841.6494985835419</v>
+        <v>563.5863609803849</v>
       </c>
     </row>
     <row r="38">
@@ -7162,10 +7162,10 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F38" t="n">
-        <v>839.4070255988739</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G38" t="n">
-        <v>435.0679631883226</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H38" t="n">
         <v>137.1995846623573</v>
@@ -7174,28 +7174,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J38" t="n">
-        <v>102.3027134058285</v>
+        <v>464.906172222724</v>
       </c>
       <c r="K38" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L38" t="n">
-        <v>1747.436069000604</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="M38" t="n">
-        <v>2751.722170419663</v>
+        <v>2184.700581617281</v>
       </c>
       <c r="N38" t="n">
-        <v>3727.973228906364</v>
+        <v>2988.069926596601</v>
       </c>
       <c r="O38" t="n">
-        <v>4573.117879057176</v>
+        <v>3833.214576747413</v>
       </c>
       <c r="P38" t="n">
-        <v>5115.135670291426</v>
+        <v>4541.493855905341</v>
       </c>
       <c r="Q38" t="n">
-        <v>5115.135670291426</v>
+        <v>4997.579335409524</v>
       </c>
       <c r="R38" t="n">
         <v>5115.135670291426</v>
@@ -7253,25 +7253,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J39" t="n">
-        <v>102.3027134058285</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="K39" t="n">
-        <v>102.3027134058285</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="L39" t="n">
-        <v>939.1015214887346</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="M39" t="n">
-        <v>1021.509065974867</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="N39" t="n">
-        <v>1021.509065974867</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="O39" t="n">
-        <v>1910.990343986338</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="P39" t="n">
-        <v>1910.990343986338</v>
+        <v>1680.682846292257</v>
       </c>
       <c r="Q39" t="n">
         <v>1910.990343986338</v>
@@ -7308,16 +7308,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>326.3817789554925</v>
+        <v>373.4203922683193</v>
       </c>
       <c r="C40" t="n">
-        <v>154.4092158344085</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="D40" t="n">
-        <v>102.3027134058285</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="E40" t="n">
-        <v>102.3027134058285</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="F40" t="n">
         <v>102.3027134058285</v>
@@ -7356,28 +7356,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R40" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S40" t="n">
-        <v>2065.542080025265</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T40" t="n">
-        <v>1822.202732251165</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U40" t="n">
-        <v>1542.018283751469</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V40" t="n">
-        <v>1260.306816359498</v>
+        <v>1307.345429672325</v>
       </c>
       <c r="W40" t="n">
-        <v>985.454412532011</v>
+        <v>1032.493025844838</v>
       </c>
       <c r="X40" t="n">
-        <v>742.8905159778161</v>
+        <v>789.9291292906429</v>
       </c>
       <c r="Y40" t="n">
-        <v>516.5477476675582</v>
+        <v>563.5863609803849</v>
       </c>
     </row>
     <row r="41">
@@ -7399,10 +7399,10 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F41" t="n">
-        <v>839.4070255988739</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G41" t="n">
-        <v>435.0679631883226</v>
+        <v>435.0679631883224</v>
       </c>
       <c r="H41" t="n">
         <v>137.1995846623573</v>
@@ -7411,7 +7411,7 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J41" t="n">
-        <v>464.9061722227241</v>
+        <v>464.906172222724</v>
       </c>
       <c r="K41" t="n">
         <v>1180.414480198223</v>
@@ -7420,43 +7420,43 @@
         <v>2110.0395278175</v>
       </c>
       <c r="M41" t="n">
-        <v>3114.325629236558</v>
+        <v>2988.069926596601</v>
       </c>
       <c r="N41" t="n">
-        <v>4090.576687723259</v>
+        <v>2988.069926596601</v>
       </c>
       <c r="O41" t="n">
-        <v>4935.721337874071</v>
+        <v>3833.214576747413</v>
       </c>
       <c r="P41" t="n">
-        <v>5115.135670291427</v>
+        <v>4541.493855905341</v>
       </c>
       <c r="Q41" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409524</v>
       </c>
       <c r="R41" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S41" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T41" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U41" t="n">
         <v>4531.487895805612</v>
       </c>
       <c r="V41" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W41" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X41" t="n">
         <v>3365.887132399956</v>
       </c>
       <c r="Y41" t="n">
-        <v>2960.549862354847</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="42">
@@ -7490,25 +7490,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J42" t="n">
-        <v>102.3027134058285</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="K42" t="n">
-        <v>692.7876399741681</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="L42" t="n">
-        <v>1194.79262694784</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="M42" t="n">
-        <v>1194.79262694784</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="N42" t="n">
-        <v>1194.79262694784</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="O42" t="n">
-        <v>1194.79262694784</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="P42" t="n">
-        <v>1910.990343986338</v>
+        <v>1680.682846292257</v>
       </c>
       <c r="Q42" t="n">
         <v>1910.990343986338</v>
@@ -7569,10 +7569,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J43" t="n">
-        <v>159.7940416299866</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K43" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L43" t="n">
         <v>741.0109641302445</v>
@@ -7593,7 +7593,7 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R43" t="n">
-        <v>2282.715740818957</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S43" t="n">
         <v>2185.297351822124</v>
@@ -7624,22 +7624,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2540.701498063317</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C44" t="n">
-        <v>2113.800768076617</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D44" t="n">
-        <v>1690.508147261617</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E44" t="n">
-        <v>1264.531207409475</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F44" t="n">
-        <v>839.4070255988752</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G44" t="n">
-        <v>435.0679631883226</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H44" t="n">
         <v>137.1995846623573</v>
@@ -7648,52 +7648,52 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J44" t="n">
-        <v>102.3027134058285</v>
+        <v>464.906172222724</v>
       </c>
       <c r="K44" t="n">
-        <v>533.9931985757493</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L44" t="n">
-        <v>1463.618246195026</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M44" t="n">
-        <v>2467.904347614084</v>
+        <v>2988.069926596601</v>
       </c>
       <c r="N44" t="n">
-        <v>3444.155406100785</v>
+        <v>2988.069926596601</v>
       </c>
       <c r="O44" t="n">
-        <v>4289.300056251597</v>
+        <v>3833.214576747413</v>
       </c>
       <c r="P44" t="n">
-        <v>4997.579335409525</v>
+        <v>4541.493855905341</v>
       </c>
       <c r="Q44" t="n">
-        <v>4997.579335409525</v>
+        <v>4997.579335409524</v>
       </c>
       <c r="R44" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S44" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T44" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U44" t="n">
         <v>4531.487895805612</v>
       </c>
       <c r="V44" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W44" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X44" t="n">
-        <v>3365.887132399957</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y44" t="n">
-        <v>2960.549862354847</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="45">
@@ -7724,31 +7724,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I45" t="n">
-        <v>109.7493563677404</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J45" t="n">
-        <v>381.4468456473314</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="K45" t="n">
-        <v>971.931772215671</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="L45" t="n">
-        <v>971.931772215671</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="M45" t="n">
-        <v>971.931772215671</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="N45" t="n">
-        <v>971.931772215671</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="O45" t="n">
-        <v>971.931772215671</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="P45" t="n">
-        <v>1364.825557038856</v>
+        <v>1680.682846292257</v>
       </c>
       <c r="Q45" t="n">
-        <v>1828.971033901635</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R45" t="n">
         <v>1910.990343986338</v>
@@ -7782,34 +7782,34 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>681.0460972560671</v>
+        <v>373.4203922683193</v>
       </c>
       <c r="C46" t="n">
-        <v>681.0460972560671</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D46" t="n">
-        <v>517.7293243828378</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E46" t="n">
-        <v>517.7293243828378</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F46" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G46" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H46" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I46" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J46" t="n">
-        <v>159.7940416299866</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K46" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L46" t="n">
         <v>741.0109641302445</v>
@@ -7830,28 +7830,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R46" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S46" t="n">
-        <v>2145.353994498352</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T46" t="n">
-        <v>1902.014646724252</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U46" t="n">
-        <v>1621.830198224557</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V46" t="n">
-        <v>1340.118730832585</v>
+        <v>1307.345429672325</v>
       </c>
       <c r="W46" t="n">
-        <v>1340.118730832585</v>
+        <v>1032.493025844838</v>
       </c>
       <c r="X46" t="n">
-        <v>1097.554834278391</v>
+        <v>789.9291292906429</v>
       </c>
       <c r="Y46" t="n">
-        <v>871.2120659681327</v>
+        <v>563.5863609803849</v>
       </c>
     </row>
   </sheetData>
@@ -7984,19 +7984,19 @@
         <v>35.76460079480934</v>
       </c>
       <c r="L2" t="n">
-        <v>38.31204243262292</v>
+        <v>406.8827156170818</v>
       </c>
       <c r="M2" t="n">
-        <v>406.0019360838922</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N2" t="n">
         <v>37.27962283444602</v>
       </c>
       <c r="O2" t="n">
-        <v>521.1676505099938</v>
+        <v>521.1676505099931</v>
       </c>
       <c r="P2" t="n">
-        <v>521.352052964201</v>
+        <v>521.3520529642003</v>
       </c>
       <c r="Q2" t="n">
         <v>496.8170781441769</v>
@@ -8054,7 +8054,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J3" t="n">
         <v>295.0530226965566</v>
@@ -8063,19 +8063,19 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L3" t="n">
-        <v>506.2917778681993</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M3" t="n">
-        <v>506.8734716662977</v>
+        <v>33.91235175173807</v>
       </c>
       <c r="N3" t="n">
-        <v>21.34302821354166</v>
+        <v>505.1197193675106</v>
       </c>
       <c r="O3" t="n">
-        <v>506.948580876192</v>
+        <v>506.9485808761912</v>
       </c>
       <c r="P3" t="n">
-        <v>40.10827402192496</v>
+        <v>505.5475323587976</v>
       </c>
       <c r="Q3" t="n">
         <v>22.7470382889785</v>
@@ -8136,7 +8136,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>78.70880469517259</v>
+        <v>20.63675598390187</v>
       </c>
       <c r="K4" t="n">
         <v>249.7804132464869</v>
@@ -8148,16 +8148,16 @@
         <v>417.7126065281028</v>
       </c>
       <c r="N4" t="n">
-        <v>115.1762876285988</v>
+        <v>402.0534574160406</v>
       </c>
       <c r="O4" t="n">
         <v>381.5174992961649</v>
       </c>
       <c r="P4" t="n">
-        <v>315.9153581548562</v>
+        <v>215.3931969178357</v>
       </c>
       <c r="Q4" t="n">
-        <v>152.9025226039384</v>
+        <v>24.61956276478495</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8218,10 +8218,10 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K5" t="n">
-        <v>35.76460079480934</v>
+        <v>591.9924139104035</v>
       </c>
       <c r="L5" t="n">
-        <v>594.539855548217</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M5" t="n">
         <v>37.43126289943181</v>
@@ -8230,10 +8230,10 @@
         <v>37.27962283444602</v>
       </c>
       <c r="O5" t="n">
-        <v>593.6187724716183</v>
+        <v>181.6704383876113</v>
       </c>
       <c r="P5" t="n">
-        <v>181.8548408418185</v>
+        <v>593.8031749258255</v>
       </c>
       <c r="Q5" t="n">
         <v>496.8170781441769</v>
@@ -8294,28 +8294,28 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J6" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K6" t="n">
-        <v>578.6270469489275</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L6" t="n">
-        <v>22.51508671422956</v>
+        <v>90.41920043198729</v>
       </c>
       <c r="M6" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N6" t="n">
-        <v>458.427044786356</v>
+        <v>577.5708413291358</v>
       </c>
       <c r="O6" t="n">
-        <v>23.17188972222222</v>
+        <v>579.3997028378163</v>
       </c>
       <c r="P6" t="n">
-        <v>21.77084120482866</v>
+        <v>577.9986543204228</v>
       </c>
       <c r="Q6" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R6" t="n">
         <v>106.5207073584907</v>
@@ -8452,7 +8452,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K8" t="n">
         <v>591.9924139104035</v>
@@ -8461,7 +8461,7 @@
         <v>594.539855548217</v>
       </c>
       <c r="M8" t="n">
-        <v>593.6590760150259</v>
+        <v>300.4545145390017</v>
       </c>
       <c r="N8" t="n">
         <v>37.27962283444602</v>
@@ -8470,10 +8470,10 @@
         <v>37.3909593560241</v>
       </c>
       <c r="P8" t="n">
-        <v>571.3293238908518</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q8" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R8" t="n">
         <v>35.03264989479647</v>
@@ -8528,19 +8528,19 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J9" t="n">
-        <v>295.0530226965566</v>
+        <v>175.9092261537768</v>
       </c>
       <c r="K9" t="n">
-        <v>379.6111138811506</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L9" t="n">
         <v>578.7428998298237</v>
       </c>
       <c r="M9" t="n">
-        <v>579.3245936279221</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N9" t="n">
         <v>21.34302821354166</v>
@@ -8549,10 +8549,10 @@
         <v>23.17188972222222</v>
       </c>
       <c r="P9" t="n">
-        <v>21.77084120482866</v>
+        <v>577.9986543204228</v>
       </c>
       <c r="Q9" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R9" t="n">
         <v>106.5207073584907</v>
@@ -8689,7 +8689,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K11" t="n">
         <v>758.5002654165255</v>
@@ -8698,22 +8698,22 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M11" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N11" t="n">
-        <v>1023.391803124043</v>
+        <v>924.1790155406089</v>
       </c>
       <c r="O11" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P11" t="n">
-        <v>585.0680802286663</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q11" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R11" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8765,28 +8765,28 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J12" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K12" t="n">
-        <v>618.848654609434</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L12" t="n">
-        <v>529.5908311320803</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M12" t="n">
-        <v>23.09678051232798</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N12" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O12" t="n">
-        <v>23.17188972222222</v>
+        <v>501.5122537252138</v>
       </c>
       <c r="P12" t="n">
-        <v>745.2028786174529</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q12" t="n">
         <v>22.7470382889785</v>
@@ -8926,7 +8926,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K14" t="n">
         <v>758.5002654165255</v>
@@ -8944,13 +8944,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P14" t="n">
-        <v>585.0680802286672</v>
+        <v>100.0581876036184</v>
       </c>
       <c r="Q14" t="n">
         <v>36.12467460459804</v>
       </c>
       <c r="R14" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9005,7 +9005,7 @@
         <v>16.17238675</v>
       </c>
       <c r="J15" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K15" t="n">
         <v>618.848654609434</v>
@@ -9020,16 +9020,16 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O15" t="n">
-        <v>530.2476341400729</v>
+        <v>896.3899752251272</v>
       </c>
       <c r="P15" t="n">
-        <v>745.2028786174529</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q15" t="n">
         <v>22.7470382889785</v>
       </c>
       <c r="R15" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9169,7 +9169,7 @@
         <v>758.5002654165255</v>
       </c>
       <c r="L17" t="n">
-        <v>977.3272420480539</v>
+        <v>697.8614369098437</v>
       </c>
       <c r="M17" t="n">
         <v>1051.861668373228</v>
@@ -9178,10 +9178,10 @@
         <v>1023.391803124043</v>
       </c>
       <c r="O17" t="n">
-        <v>37.3909593560241</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P17" t="n">
-        <v>611.7910214708227</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q17" t="n">
         <v>496.8170781441769</v>
@@ -9239,13 +9239,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J18" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K18" t="n">
-        <v>618.848654609434</v>
+        <v>467.0745387486232</v>
       </c>
       <c r="L18" t="n">
         <v>22.51508671422956</v>
@@ -9254,13 +9254,13 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N18" t="n">
-        <v>21.34302821354166</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O18" t="n">
-        <v>530.2476341400729</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P18" t="n">
-        <v>745.2028786174529</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q18" t="n">
         <v>22.7470382889785</v>
@@ -9400,7 +9400,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K20" t="n">
         <v>758.5002654165255</v>
@@ -9409,10 +9409,10 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M20" t="n">
-        <v>304.4845953330648</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N20" t="n">
-        <v>1023.391803124043</v>
+        <v>924.1790155406098</v>
       </c>
       <c r="O20" t="n">
         <v>891.0724241548241</v>
@@ -9479,10 +9479,10 @@
         <v>16.17238675</v>
       </c>
       <c r="J21" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K21" t="n">
-        <v>618.848654609434</v>
+        <v>382.6486756511529</v>
       </c>
       <c r="L21" t="n">
         <v>22.51508671422956</v>
@@ -9494,10 +9494,10 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O21" t="n">
-        <v>784.8458565397888</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P21" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q21" t="n">
         <v>491.5808533018869</v>
@@ -9646,19 +9646,19 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M23" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N23" t="n">
-        <v>1023.391803124043</v>
+        <v>924.1790155406098</v>
       </c>
       <c r="O23" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P23" t="n">
-        <v>100.0581876036193</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q23" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R23" t="n">
         <v>153.7764225027789</v>
@@ -9713,34 +9713,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J24" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K24" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L24" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M24" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N24" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O24" t="n">
-        <v>783.4760236661258</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P24" t="n">
-        <v>21.77084120482866</v>
+        <v>418.6332501171365</v>
       </c>
       <c r="Q24" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R24" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9895,10 +9895,10 @@
         <v>753.0089771212694</v>
       </c>
       <c r="Q26" t="n">
-        <v>496.8170781441769</v>
+        <v>397.6042905607445</v>
       </c>
       <c r="R26" t="n">
-        <v>54.56363491934598</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9950,34 +9950,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J27" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K27" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L27" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M27" t="n">
-        <v>951.5880457335786</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N27" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O27" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P27" t="n">
-        <v>21.77084120482866</v>
+        <v>418.6332501171365</v>
       </c>
       <c r="Q27" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R27" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10111,7 +10111,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K29" t="n">
         <v>758.5002654165255</v>
@@ -10129,13 +10129,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P29" t="n">
-        <v>585.0680802286672</v>
+        <v>100.0581876036193</v>
       </c>
       <c r="Q29" t="n">
         <v>36.12467460459804</v>
       </c>
       <c r="R29" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10187,34 +10187,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J30" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K30" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L30" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M30" t="n">
-        <v>749.7358553685299</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N30" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O30" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P30" t="n">
-        <v>21.77084120482866</v>
+        <v>418.6332501171365</v>
       </c>
       <c r="Q30" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R30" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10348,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K32" t="n">
         <v>758.5002654165255</v>
@@ -10357,22 +10357,22 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M32" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N32" t="n">
-        <v>1023.391803124043</v>
+        <v>924.1790155406098</v>
       </c>
       <c r="O32" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P32" t="n">
-        <v>585.0680802286672</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q32" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R32" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10427,28 +10427,28 @@
         <v>16.17238675</v>
       </c>
       <c r="J33" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K33" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L33" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M33" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N33" t="n">
-        <v>312.8133471445368</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O33" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P33" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q33" t="n">
-        <v>491.5808533018869</v>
+        <v>255.3808743436059</v>
       </c>
       <c r="R33" t="n">
         <v>23.67291939414415</v>
@@ -10594,22 +10594,22 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M35" t="n">
-        <v>1051.861668373228</v>
+        <v>924.3306556055946</v>
       </c>
       <c r="N35" t="n">
-        <v>1023.391803124043</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O35" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P35" t="n">
-        <v>218.8019602116015</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q35" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R35" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10676,19 +10676,19 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N36" t="n">
-        <v>425.7272987035383</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O36" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P36" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q36" t="n">
-        <v>491.5808533018869</v>
+        <v>255.3808743436059</v>
       </c>
       <c r="R36" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10822,31 +10822,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K38" t="n">
         <v>758.5002654165255</v>
       </c>
       <c r="L38" t="n">
-        <v>977.3272420480539</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M38" t="n">
         <v>1051.861668373228</v>
       </c>
       <c r="N38" t="n">
-        <v>1023.391803124043</v>
+        <v>848.7638096822436</v>
       </c>
       <c r="O38" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P38" t="n">
-        <v>585.0680802286663</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q38" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R38" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10901,28 +10901,28 @@
         <v>16.17238675</v>
       </c>
       <c r="J39" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K39" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L39" t="n">
-        <v>867.7664080100944</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M39" t="n">
-        <v>106.3367244377138</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N39" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O39" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P39" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q39" t="n">
-        <v>22.7470382889785</v>
+        <v>255.3808743436059</v>
       </c>
       <c r="R39" t="n">
         <v>23.67291939414415</v>
@@ -11068,22 +11068,22 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M41" t="n">
-        <v>1051.861668373228</v>
+        <v>924.3306556055946</v>
       </c>
       <c r="N41" t="n">
-        <v>1023.391803124043</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O41" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P41" t="n">
-        <v>218.8019602116015</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q41" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R41" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11138,13 +11138,13 @@
         <v>16.17238675</v>
       </c>
       <c r="J42" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K42" t="n">
         <v>618.848654609434</v>
       </c>
       <c r="L42" t="n">
-        <v>529.5908311320803</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M42" t="n">
         <v>23.09678051232798</v>
@@ -11159,7 +11159,7 @@
         <v>745.2028786174529</v>
       </c>
       <c r="Q42" t="n">
-        <v>22.7470382889785</v>
+        <v>255.3808743436059</v>
       </c>
       <c r="R42" t="n">
         <v>23.67291939414415</v>
@@ -11296,19 +11296,19 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K44" t="n">
-        <v>471.8155959159414</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L44" t="n">
         <v>977.3272420480539</v>
       </c>
       <c r="M44" t="n">
-        <v>1051.861668373228</v>
+        <v>924.3306556055946</v>
       </c>
       <c r="N44" t="n">
-        <v>1023.391803124043</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O44" t="n">
         <v>891.0724241548241</v>
@@ -11317,7 +11317,7 @@
         <v>753.0089771212694</v>
       </c>
       <c r="Q44" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R44" t="n">
         <v>153.7764225027789</v>
@@ -11372,7 +11372,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J45" t="n">
         <v>295.0530226965566</v>
@@ -11393,13 +11393,13 @@
         <v>23.17188972222222</v>
       </c>
       <c r="P45" t="n">
-        <v>418.6332501171365</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q45" t="n">
-        <v>491.5808533018869</v>
+        <v>255.3808743436059</v>
       </c>
       <c r="R45" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23427,13 +23427,13 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H13" t="n">
-        <v>52.69001940724856</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>98.77088257712678</v>
@@ -23469,7 +23469,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>130.2961125674533</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y13" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23652,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>188.264309024945</v>
+        <v>71.98949189919253</v>
       </c>
       <c r="C16" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H16" t="n">
-        <v>52.92768073081061</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23709,7 +23709,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -24138,7 +24138,7 @@
         <v>164.546123788675</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>71.9894918991925</v>
       </c>
       <c r="G22" t="n">
         <v>164.5944000087102</v>
@@ -24177,7 +24177,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S22" t="n">
-        <v>71.9894918991922</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24375,7 +24375,7 @@
         <v>164.546123788675</v>
       </c>
       <c r="F25" t="n">
-        <v>71.9894918991925</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>164.5944000087102</v>
@@ -24417,7 +24417,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>71.98949189919222</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24606,7 +24606,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -24618,10 +24618,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24651,16 +24651,16 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S28" t="n">
-        <v>168.4336970060565</v>
+        <v>123.7474116818789</v>
       </c>
       <c r="T28" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V28" t="n">
-        <v>117.2205539080143</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24837,25 +24837,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F31" t="n">
-        <v>13.62668311841711</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I31" t="n">
         <v>98.77088257712678</v>
@@ -24888,7 +24888,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S31" t="n">
-        <v>168.4336970060565</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25086,16 +25086,16 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>47.95259420825461</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,25 +25122,25 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W34" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>60.1185983045572</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25311,28 +25311,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F37" t="n">
-        <v>170.1431564831852</v>
+        <v>71.98949189919249</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25362,7 +25362,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S37" t="n">
-        <v>51.20316559996989</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25554,13 +25554,13 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>110.0981677402028</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E40" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F40" t="n">
-        <v>170.1431564831852</v>
+        <v>71.98949189919249</v>
       </c>
       <c r="G40" t="n">
         <v>164.5944000087102</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25833,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>71.9894918991922</v>
+        <v>118.5577190788907</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -26025,10 +26025,10 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>170.2528374898731</v>
+        <v>71.98949189919249</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E46" t="n">
         <v>164.546123788675</v>
@@ -26040,10 +26040,10 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S46" t="n">
-        <v>79.01379532835641</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26085,7 +26085,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>564794.8940785701</v>
+        <v>564794.89407857</v>
       </c>
     </row>
     <row r="3">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>591989.3965311549</v>
+        <v>591989.3965311548</v>
       </c>
     </row>
     <row r="8">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>591989.396531155</v>
+        <v>591989.3965311549</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>591989.3965311549</v>
+        <v>591989.396531155</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>591989.3965311549</v>
+        <v>591989.3965311548</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>591989.3965311549</v>
+        <v>591989.3965311548</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>591989.3965311549</v>
+        <v>591989.3965311548</v>
       </c>
     </row>
   </sheetData>
@@ -26316,46 +26316,46 @@
         <v>509637.3345097678</v>
       </c>
       <c r="C2" t="n">
-        <v>509637.3345097676</v>
+        <v>509637.3345097679</v>
       </c>
       <c r="D2" t="n">
-        <v>509637.3345097678</v>
+        <v>509637.3345097679</v>
       </c>
       <c r="E2" t="n">
-        <v>491776.6027452663</v>
+        <v>491776.6027452662</v>
       </c>
       <c r="F2" t="n">
-        <v>491776.6027452664</v>
+        <v>491776.6027452662</v>
       </c>
       <c r="G2" t="n">
-        <v>491776.6027452664</v>
+        <v>491776.6027452665</v>
       </c>
       <c r="H2" t="n">
-        <v>491776.6027452664</v>
+        <v>491776.6027452665</v>
       </c>
       <c r="I2" t="n">
         <v>491776.6027452663</v>
       </c>
       <c r="J2" t="n">
-        <v>491776.6027452664</v>
+        <v>491776.6027452662</v>
       </c>
       <c r="K2" t="n">
         <v>491776.6027452662</v>
       </c>
       <c r="L2" t="n">
-        <v>491776.6027452663</v>
+        <v>491776.6027452664</v>
       </c>
       <c r="M2" t="n">
-        <v>491776.6027452663</v>
+        <v>491776.6027452662</v>
       </c>
       <c r="N2" t="n">
         <v>491776.6027452663</v>
       </c>
       <c r="O2" t="n">
-        <v>491776.6027452665</v>
+        <v>491776.6027452663</v>
       </c>
       <c r="P2" t="n">
-        <v>491776.6027452664</v>
+        <v>491776.6027452663</v>
       </c>
     </row>
     <row r="3">
@@ -26365,10 +26365,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>162124.6960695918</v>
+        <v>162124.6960695915</v>
       </c>
       <c r="C3" t="n">
-        <v>23406.83367361165</v>
+        <v>23406.83367361191</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -26389,10 +26389,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>126577.2685802893</v>
+        <v>126577.2685802891</v>
       </c>
       <c r="K3" t="n">
-        <v>18646.60035701934</v>
+        <v>18646.60035701955</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26417,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>211246.623646525</v>
+        <v>211246.6236465251</v>
       </c>
       <c r="C4" t="n">
         <v>199866.3919893415</v>
@@ -26435,7 +26435,7 @@
         <v>101012.8540458318</v>
       </c>
       <c r="H4" t="n">
-        <v>101012.8540458318</v>
+        <v>101012.8540458319</v>
       </c>
       <c r="I4" t="n">
         <v>101012.8540458319</v>
@@ -26447,10 +26447,10 @@
         <v>101012.8540458319</v>
       </c>
       <c r="L4" t="n">
+        <v>101012.8540458319</v>
+      </c>
+      <c r="M4" t="n">
         <v>101012.8540458318</v>
-      </c>
-      <c r="M4" t="n">
-        <v>101012.8540458319</v>
       </c>
       <c r="N4" t="n">
         <v>101012.8540458318</v>
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>63041.22282216136</v>
+        <v>63041.22282216131</v>
       </c>
       <c r="C5" t="n">
         <v>67446.25103742813</v>
@@ -26481,10 +26481,10 @@
         <v>77750.06218842967</v>
       </c>
       <c r="F5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="G5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="H5" t="n">
         <v>77750.06218842969</v>
@@ -26502,16 +26502,16 @@
         <v>77750.06218842969</v>
       </c>
       <c r="M5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="N5" t="n">
         <v>77750.06218842967</v>
       </c>
       <c r="O5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="P5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>73224.7919714897</v>
+        <v>73224.79197148987</v>
       </c>
       <c r="C6" t="n">
-        <v>218917.8578093863</v>
+        <v>218917.8578093864</v>
       </c>
       <c r="D6" t="n">
         <v>242324.6914829982</v>
       </c>
       <c r="E6" t="n">
-        <v>97274.32995436425</v>
+        <v>97223.29929217984</v>
       </c>
       <c r="F6" t="n">
-        <v>313013.6865110049</v>
+        <v>312962.6558488204</v>
       </c>
       <c r="G6" t="n">
-        <v>313013.6865110049</v>
+        <v>312962.6558488206</v>
       </c>
       <c r="H6" t="n">
-        <v>313013.6865110049</v>
+        <v>312962.6558488206</v>
       </c>
       <c r="I6" t="n">
-        <v>313013.6865110048</v>
+        <v>312962.6558488205</v>
       </c>
       <c r="J6" t="n">
-        <v>186436.4179307156</v>
+        <v>186385.3872685314</v>
       </c>
       <c r="K6" t="n">
-        <v>294367.0861539854</v>
+        <v>294316.0554918008</v>
       </c>
       <c r="L6" t="n">
-        <v>313013.6865110048</v>
+        <v>312962.6558488206</v>
       </c>
       <c r="M6" t="n">
-        <v>132949.8150558372</v>
+        <v>132898.7843936528</v>
       </c>
       <c r="N6" t="n">
-        <v>313013.6865110049</v>
+        <v>312962.6558488205</v>
       </c>
       <c r="O6" t="n">
-        <v>313013.6865110049</v>
+        <v>312962.6558488205</v>
       </c>
       <c r="P6" t="n">
-        <v>313013.6865110049</v>
+        <v>312962.6558488205</v>
       </c>
     </row>
   </sheetData>
@@ -26789,7 +26789,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>483.7766911539698</v>
+        <v>483.776691153969</v>
       </c>
       <c r="C4" t="n">
         <v>556.2278131155941</v>
@@ -27011,10 +27011,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>483.7766911539698</v>
+        <v>483.776691153969</v>
       </c>
       <c r="C4" t="n">
-        <v>72.45112196162438</v>
+        <v>72.45112196162518</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>483.7766911539698</v>
+        <v>483.776691153969</v>
       </c>
       <c r="K4" t="n">
-        <v>72.45112196162438</v>
+        <v>72.45112196162518</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>722.5561044572624</v>
+        <v>722.5561044572622</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,10 +27257,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>483.7766911539698</v>
+        <v>483.776691153969</v>
       </c>
       <c r="K4" t="n">
-        <v>72.45112196162438</v>
+        <v>72.45112196162518</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27384,10 +27384,10 @@
         <v>400</v>
       </c>
       <c r="D2" t="n">
-        <v>161.1107906177902</v>
+        <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>338.9220873587491</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27429,13 +27429,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>353.914520725013</v>
@@ -27590,13 +27590,13 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U4" t="n">
-        <v>116.4635197904264</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V4" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>272.1038797892121</v>
@@ -27605,7 +27605,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y4" t="n">
-        <v>224.0793406271554</v>
+        <v>101.1486548245785</v>
       </c>
     </row>
     <row r="5">
@@ -27621,22 +27621,22 @@
         <v>400</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>64.11088921096791</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I5" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,25 +27666,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W5" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
+        <v>155.2915147120252</v>
+      </c>
+      <c r="Y5" t="n">
         <v>400</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27773,28 +27773,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>12.06616725231314</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>79.34073237338177</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,7 +27821,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -27830,7 +27830,7 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -27839,10 +27839,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="8">
@@ -27855,25 +27855,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E8" t="n">
-        <v>350.5048792244489</v>
+        <v>400</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>162.8640785093684</v>
       </c>
       <c r="H8" t="n">
         <v>294.8896947407055</v>
       </c>
       <c r="I8" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,13 +27903,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>353.914520725013</v>
@@ -28010,22 +28010,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>12.06616725231322</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -28061,16 +28061,16 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>168.4336970060574</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U10" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>117.2205539080134</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -34704,19 +34704,19 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>368.5706731844588</v>
       </c>
       <c r="M2" t="n">
-        <v>368.5706731844604</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>483.7766911539698</v>
+        <v>483.776691153969</v>
       </c>
       <c r="P2" t="n">
-        <v>483.7766911539698</v>
+        <v>483.776691153969</v>
       </c>
       <c r="Q2" t="n">
         <v>460.6924035395789</v>
@@ -34774,7 +34774,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J3" t="n">
         <v>274.4419083632233</v>
@@ -34783,19 +34783,19 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>483.7766911539698</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>483.7766911539698</v>
+        <v>10.8155712394101</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>483.776691153969</v>
       </c>
       <c r="O3" t="n">
-        <v>483.7766911539698</v>
+        <v>483.776691153969</v>
       </c>
       <c r="P3" t="n">
-        <v>18.33743281709629</v>
+        <v>483.776691153969</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -34856,7 +34856,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>58.07204871127072</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>228.8157587937749</v>
@@ -34868,16 +34868,16 @@
         <v>395.137166636617</v>
       </c>
       <c r="N4" t="n">
-        <v>94.42738665299836</v>
+        <v>381.3045564404402</v>
       </c>
       <c r="O4" t="n">
         <v>359.0183117977405</v>
       </c>
       <c r="P4" t="n">
-        <v>293.5345574968697</v>
+        <v>193.0123962598492</v>
       </c>
       <c r="Q4" t="n">
-        <v>128.2829598391535</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34938,22 +34938,22 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>144.2794790315872</v>
+      </c>
+      <c r="P5" t="n">
         <v>556.2278131155941</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>556.2278131155941</v>
-      </c>
-      <c r="P5" t="n">
-        <v>144.2794790315872</v>
       </c>
       <c r="Q5" t="n">
         <v>460.6924035395789</v>
@@ -35014,28 +35014,28 @@
         <v>7.521861577688728</v>
       </c>
       <c r="J6" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>67.90411371775774</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
         <v>556.2278131155941</v>
       </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>437.0840165728143</v>
-      </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q6" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>82.84778796434657</v>
@@ -35172,7 +35172,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K8" t="n">
         <v>556.2278131155941</v>
@@ -35181,7 +35181,7 @@
         <v>556.2278131155941</v>
       </c>
       <c r="M8" t="n">
-        <v>556.2278131155941</v>
+        <v>263.0232516395698</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
@@ -35190,10 +35190,10 @@
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>533.7539620806206</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35248,31 +35248,31 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J9" t="n">
-        <v>274.4419083632233</v>
+        <v>155.2981118204434</v>
       </c>
       <c r="K9" t="n">
-        <v>357.2118800478173</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>556.2278131155941</v>
       </c>
       <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
         <v>556.2278131155941</v>
       </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R9" t="n">
         <v>82.84778796434657</v>
@@ -35409,7 +35409,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K11" t="n">
         <v>722.7356646217162</v>
@@ -35418,22 +35418,22 @@
         <v>939.015199615431</v>
       </c>
       <c r="M11" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>986.1121802895968</v>
+        <v>886.8993927061629</v>
       </c>
       <c r="O11" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P11" t="n">
-        <v>547.4927184184349</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,28 +35485,28 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K12" t="n">
-        <v>596.4494207761006</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>507.0757444178507</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>478.3403640029916</v>
       </c>
       <c r="P12" t="n">
-        <v>723.4320374126243</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35646,7 +35646,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K14" t="n">
         <v>722.7356646217162</v>
@@ -35664,13 +35664,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P14" t="n">
-        <v>547.4927184184359</v>
+        <v>62.48282579338712</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,7 +35725,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K15" t="n">
         <v>596.4494207761006</v>
@@ -35740,16 +35740,16 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>507.0757444178507</v>
+        <v>873.218085502905</v>
       </c>
       <c r="P15" t="n">
-        <v>723.4320374126243</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35813,7 +35813,7 @@
         <v>358.2720417115361</v>
       </c>
       <c r="M16" t="n">
-        <v>395.13716663662</v>
+        <v>395.137166636617</v>
       </c>
       <c r="N16" t="n">
         <v>381.3045564404402</v>
@@ -35889,7 +35889,7 @@
         <v>722.7356646217162</v>
       </c>
       <c r="L17" t="n">
-        <v>939.015199615431</v>
+        <v>659.5493944772209</v>
       </c>
       <c r="M17" t="n">
         <v>1014.430405473796</v>
@@ -35898,10 +35898,10 @@
         <v>986.1121802895968</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P17" t="n">
-        <v>574.2156596605913</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
         <v>460.6924035395789</v>
@@ -35959,13 +35959,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K18" t="n">
-        <v>596.4494207761006</v>
+        <v>444.6753049152899</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -35974,13 +35974,13 @@
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O18" t="n">
-        <v>507.0757444178507</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>723.4320374126243</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36120,7 +36120,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K20" t="n">
         <v>722.7356646217162</v>
@@ -36129,10 +36129,10 @@
         <v>939.015199615431</v>
       </c>
       <c r="M20" t="n">
-        <v>267.053332433633</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>986.1121802895968</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="O20" t="n">
         <v>853.6814647988001</v>
@@ -36199,10 +36199,10 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K21" t="n">
-        <v>596.4494207761006</v>
+        <v>360.2494418178196</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -36214,10 +36214,10 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>761.6739668175666</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q21" t="n">
         <v>468.8338150129084</v>
@@ -36366,19 +36366,19 @@
         <v>939.015199615431</v>
       </c>
       <c r="M23" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>986.1121802895968</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="O23" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P23" t="n">
-        <v>62.48282579338804</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R23" t="n">
         <v>118.7437726079824</v>
@@ -36433,34 +36433,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>760.3041339439036</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>396.8624089123078</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36615,10 +36615,10 @@
         <v>715.433615311038</v>
       </c>
       <c r="Q26" t="n">
-        <v>460.6924035395789</v>
+        <v>361.4796159561464</v>
       </c>
       <c r="R26" t="n">
-        <v>19.53098502454951</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,34 +36670,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>928.4912652212506</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>396.8624089123078</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36831,7 +36831,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K29" t="n">
         <v>722.7356646217162</v>
@@ -36849,13 +36849,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P29" t="n">
-        <v>547.4927184184359</v>
+        <v>62.48282579338804</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,34 +36907,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>726.6390748562019</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>396.8624089123078</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37068,7 +37068,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K32" t="n">
         <v>722.7356646217162</v>
@@ -37077,22 +37077,22 @@
         <v>939.015199615431</v>
       </c>
       <c r="M32" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>986.1121802895968</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="O32" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P32" t="n">
-        <v>547.4927184184359</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>291.4703189309951</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q33" t="n">
-        <v>468.8338150129084</v>
+        <v>232.6338360546274</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37314,22 +37314,22 @@
         <v>939.015199615431</v>
       </c>
       <c r="M35" t="n">
-        <v>1014.430405473796</v>
+        <v>886.8993927061629</v>
       </c>
       <c r="N35" t="n">
-        <v>986.1121802895968</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P35" t="n">
-        <v>181.2265984013702</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37396,19 +37396,19 @@
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>404.3842704899966</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q36" t="n">
-        <v>468.8338150129084</v>
+        <v>232.6338360546274</v>
       </c>
       <c r="R36" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37542,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K38" t="n">
         <v>722.7356646217162</v>
       </c>
       <c r="L38" t="n">
-        <v>939.015199615431</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
         <v>1014.430405473796</v>
       </c>
       <c r="N38" t="n">
-        <v>986.1121802895968</v>
+        <v>811.4841868477976</v>
       </c>
       <c r="O38" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P38" t="n">
-        <v>547.4927184184349</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L39" t="n">
-        <v>845.2513212958648</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>83.23994392538586</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>232.6338360546274</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37788,22 +37788,22 @@
         <v>939.015199615431</v>
       </c>
       <c r="M41" t="n">
-        <v>1014.430405473796</v>
+        <v>886.8993927061629</v>
       </c>
       <c r="N41" t="n">
-        <v>986.1121802895968</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P41" t="n">
-        <v>181.2265984013702</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,13 +37858,13 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K42" t="n">
         <v>596.4494207761006</v>
       </c>
       <c r="L42" t="n">
-        <v>507.0757444178507</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -37879,7 +37879,7 @@
         <v>723.4320374126243</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>232.6338360546274</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38016,19 +38016,19 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K44" t="n">
-        <v>436.0509951211321</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L44" t="n">
         <v>939.015199615431</v>
       </c>
       <c r="M44" t="n">
-        <v>1014.430405473796</v>
+        <v>886.8993927061629</v>
       </c>
       <c r="N44" t="n">
-        <v>986.1121802895968</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
         <v>853.6814647988001</v>
@@ -38037,7 +38037,7 @@
         <v>715.433615311038</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R44" t="n">
         <v>118.7437726079824</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>274.4419083632233</v>
@@ -38113,13 +38113,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>396.8624089123078</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q45" t="n">
-        <v>468.8338150129084</v>
+        <v>232.6338360546274</v>
       </c>
       <c r="R45" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
